--- a/ExchangeWebServices/Docs/MS-OXWSFOLD/MS-OXWSFOLD_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSFOLD/MS-OXWSFOLD_RequirementSpecification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Interop-TestSuites\ExchangeWebServices\Docs\MS-OXWSFOLD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EWS\MS-OXWSFOLD\AddAdapterAndTestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10057,7 +10057,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M1046"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B324" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E334" sqref="E334"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -13511,7 +13513,7 @@
       <c r="I142" s="27"/>
     </row>
     <row r="143" spans="1:9" ht="105">
-      <c r="A143" s="25" t="s">
+      <c r="A143" s="18" t="s">
         <v>222</v>
       </c>
       <c r="B143" s="20" t="s">
@@ -13538,7 +13540,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="30">
-      <c r="A144" s="25" t="s">
+      <c r="A144" s="18" t="s">
         <v>223</v>
       </c>
       <c r="B144" s="26" t="s">
@@ -13559,13 +13561,13 @@
       <c r="G144" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H144" s="25" t="s">
-        <v>20</v>
+      <c r="H144" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I144" s="27"/>
     </row>
     <row r="145" spans="1:9" ht="30">
-      <c r="A145" s="25" t="s">
+      <c r="A145" s="18" t="s">
         <v>224</v>
       </c>
       <c r="B145" s="26" t="s">
@@ -13586,8 +13588,8 @@
       <c r="G145" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="25" t="s">
-        <v>20</v>
+      <c r="H145" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I145" s="27"/>
     </row>
@@ -13613,8 +13615,8 @@
       <c r="G146" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H146" s="25" t="s">
-        <v>20</v>
+      <c r="H146" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I146" s="27"/>
     </row>
@@ -13640,8 +13642,8 @@
       <c r="G147" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H147" s="25" t="s">
-        <v>20</v>
+      <c r="H147" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I147" s="27"/>
     </row>
@@ -13667,13 +13669,13 @@
       <c r="G148" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H148" s="25" t="s">
-        <v>20</v>
+      <c r="H148" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I148" s="27"/>
     </row>
     <row r="149" spans="1:9" ht="30">
-      <c r="A149" s="25" t="s">
+      <c r="A149" s="18" t="s">
         <v>228</v>
       </c>
       <c r="B149" s="26" t="s">
@@ -13694,8 +13696,8 @@
       <c r="G149" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H149" s="25" t="s">
-        <v>20</v>
+      <c r="H149" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I149" s="27"/>
     </row>
@@ -14070,7 +14072,7 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="25" t="s">
+      <c r="A164" s="18" t="s">
         <v>242</v>
       </c>
       <c r="B164" s="26" t="s">
@@ -14089,8 +14091,8 @@
       <c r="G164" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H164" s="25" t="s">
-        <v>20</v>
+      <c r="H164" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I164" s="27"/>
     </row>
@@ -14141,8 +14143,8 @@
       <c r="G166" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H166" s="25" t="s">
-        <v>20</v>
+      <c r="H166" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I166" s="27"/>
     </row>
@@ -14194,7 +14196,7 @@
         <v>15</v>
       </c>
       <c r="H168" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I168" s="16"/>
     </row>
@@ -17503,8 +17505,8 @@
       <c r="G298" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H298" s="25" t="s">
-        <v>20</v>
+      <c r="H298" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I298" s="27"/>
     </row>
@@ -17530,13 +17532,13 @@
       <c r="G299" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H299" s="25" t="s">
-        <v>20</v>
+      <c r="H299" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I299" s="27"/>
     </row>
     <row r="300" spans="1:9" ht="30">
-      <c r="A300" s="25" t="s">
+      <c r="A300" s="18" t="s">
         <v>297</v>
       </c>
       <c r="B300" s="26" t="s">
@@ -17557,8 +17559,8 @@
       <c r="G300" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H300" s="25" t="s">
-        <v>20</v>
+      <c r="H300" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I300" s="27"/>
     </row>
@@ -17842,7 +17844,7 @@
       <c r="I311" s="27"/>
     </row>
     <row r="312" spans="1:9" ht="30">
-      <c r="A312" s="25" t="s">
+      <c r="A312" s="18" t="s">
         <v>309</v>
       </c>
       <c r="B312" s="26" t="s">
@@ -18325,7 +18327,7 @@
       <c r="I330" s="27"/>
     </row>
     <row r="331" spans="1:9" ht="30">
-      <c r="A331" s="25" t="s">
+      <c r="A331" s="18" t="s">
         <v>328</v>
       </c>
       <c r="B331" s="26" t="s">
@@ -18344,8 +18346,8 @@
       <c r="G331" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H331" s="25" t="s">
-        <v>20</v>
+      <c r="H331" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I331" s="27"/>
     </row>
@@ -18400,7 +18402,7 @@
       <c r="I333" s="27"/>
     </row>
     <row r="334" spans="1:9" ht="30">
-      <c r="A334" s="25" t="s">
+      <c r="A334" s="18" t="s">
         <v>331</v>
       </c>
       <c r="B334" s="26" t="s">
@@ -18419,8 +18421,8 @@
       <c r="G334" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H334" s="25" t="s">
-        <v>20</v>
+      <c r="H334" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I334" s="27"/>
     </row>
@@ -36602,6 +36604,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -36650,15 +36661,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
@@ -36674,6 +36676,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36686,12 +36696,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ExchangeWebServices/Docs/MS-OXWSFOLD/MS-OXWSFOLD_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSFOLD/MS-OXWSFOLD_RequirementSpecification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EWS\MS-OXWSFOLD\AddAdapterAndTestCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Interop-TestSuites\ExchangeWebServices\Docs\MS-OXWSFOLD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10057,9 +10057,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M1046"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B324" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E334" sqref="E334"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -11988,7 +11986,7 @@
         <v>15</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I82" s="27"/>
     </row>
@@ -12038,7 +12036,7 @@
         <v>15</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I84" s="27"/>
     </row>
@@ -18397,7 +18395,7 @@
         <v>15</v>
       </c>
       <c r="H333" s="25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I333" s="27"/>
     </row>
@@ -18597,7 +18595,7 @@
         <v>15</v>
       </c>
       <c r="H341" s="25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I341" s="27"/>
     </row>
@@ -36604,15 +36602,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -36661,6 +36650,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
@@ -36676,14 +36674,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36696,4 +36686,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExchangeWebServices/Docs/MS-OXWSFOLD/MS-OXWSFOLD_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSFOLD/MS-OXWSFOLD_RequirementSpecification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EWS\MS-OXWSFOLD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EWS\MS-OXWSFOLD\AddAdapterAndTestCase\0321\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8559,13 +8559,13 @@
     <t>MS-OXWSFOLD_R11521:i</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] [CanRenameOrMove]A value of "true" indicates that the managed folder can be renamed [or moved]. (Exchange Server 2013 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] [CanRenameOrMove]A value of "true" indicates that the managed folder can be [renamed or] moved. (Exchange Server 2013 and above follow this behavior.)</t>
-  </si>
-  <si>
     <t>[In Appendix C: Product Behavior] Implementation does use StorageQuota which is the storage quota for a managed folder. (Exchange Server 2010 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support value of "true" for CanRenameOrMove to indicate that the managed folder can be renamed. (Exchange 2013 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support value of "true" for CanRenameOrMove to indicate that the managed folder can be moved. (Exchange 2013 and above follow this behavior.)</t>
   </si>
 </sst>
 </file>
@@ -9006,288 +9006,6 @@
   <dxfs count="71">
     <dxf>
       <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -9605,6 +9323,288 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -9734,34 +9734,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1049" tableType="xml" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1049" tableType="xml" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" connectionId="1">
   <autoFilter ref="A19:I1049"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="68">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="67">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="66">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="65">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="64">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="63">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="62">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="61">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="7">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="60">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="6">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -9770,12 +9770,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowBorderDxfId="59" tableBorderDxfId="58" totalsRowBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="56"/>
-    <tableColumn id="2" name="Test" dataDxfId="55"/>
-    <tableColumn id="3" name="Description" dataDxfId="54"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10105,9 +10105,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M1051"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D309" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H316" sqref="H316"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -34637,7 +34635,7 @@
         <v>1137</v>
       </c>
       <c r="C978" s="16" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="D978" s="18" t="s">
         <v>2338</v>
@@ -34666,7 +34664,7 @@
         <v>1137</v>
       </c>
       <c r="C979" s="16" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="D979" s="18" t="s">
         <v>2339</v>
@@ -34695,7 +34693,7 @@
         <v>1137</v>
       </c>
       <c r="C980" s="16" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="D980" s="18" t="s">
         <v>2327</v>
@@ -36557,202 +36555,202 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1004:B1004 A20:H45 D1004:I1004 A1005:I1034 I1003:I1028 A1036:I1044 A1046:I1049 A34:I1003">
-    <cfRule type="expression" dxfId="53" priority="93">
+    <cfRule type="expression" dxfId="70" priority="93">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="94">
+    <cfRule type="expression" dxfId="69" priority="94">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="101">
+    <cfRule type="expression" dxfId="68" priority="101">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1004:B1004 A20:H45 D1004:I1004 A1005:I1034 I1003:I1028 A1036:I1044 A1046:I1049 A34:I1003">
-    <cfRule type="expression" dxfId="50" priority="47">
+    <cfRule type="expression" dxfId="67" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="48">
+    <cfRule type="expression" dxfId="66" priority="48">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="65" priority="49">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1036:F1044 F1046:F1049 F20:F1034">
-    <cfRule type="expression" dxfId="47" priority="53">
+    <cfRule type="expression" dxfId="64" priority="53">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="54">
+    <cfRule type="expression" dxfId="63" priority="54">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I45">
-    <cfRule type="expression" dxfId="45" priority="44">
+    <cfRule type="expression" dxfId="62" priority="44">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="61" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="46">
+    <cfRule type="expression" dxfId="60" priority="46">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I45">
-    <cfRule type="expression" dxfId="42" priority="41">
+    <cfRule type="expression" dxfId="59" priority="41">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="58" priority="42">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="43">
+    <cfRule type="expression" dxfId="57" priority="43">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1004">
-    <cfRule type="expression" dxfId="39" priority="38">
+    <cfRule type="expression" dxfId="56" priority="38">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="55" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="40">
+    <cfRule type="expression" dxfId="54" priority="40">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1004">
-    <cfRule type="expression" dxfId="36" priority="35">
+    <cfRule type="expression" dxfId="53" priority="35">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="52" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="37">
+    <cfRule type="expression" dxfId="51" priority="37">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1035:I1035">
-    <cfRule type="expression" dxfId="33" priority="32">
+    <cfRule type="expression" dxfId="50" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="49" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="34">
+    <cfRule type="expression" dxfId="48" priority="34">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1035:I1035">
-    <cfRule type="expression" dxfId="30" priority="27">
+    <cfRule type="expression" dxfId="47" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="46" priority="28">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="45" priority="29">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1035">
-    <cfRule type="expression" dxfId="27" priority="30">
+    <cfRule type="expression" dxfId="44" priority="30">
       <formula>NOT(VLOOKUP(F1035,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="31">
+    <cfRule type="expression" dxfId="43" priority="31">
       <formula>(VLOOKUP(F1035,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1035:C1035">
-    <cfRule type="expression" dxfId="25" priority="21">
+    <cfRule type="expression" dxfId="42" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="22">
+    <cfRule type="expression" dxfId="41" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="40" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1035:C1035">
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="39" priority="24">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="25">
+    <cfRule type="expression" dxfId="38" priority="25">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="26">
+    <cfRule type="expression" dxfId="37" priority="26">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1045:I1045">
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="36" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="35" priority="19">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="34" priority="20">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1045:I1045">
-    <cfRule type="expression" dxfId="16" priority="13">
+    <cfRule type="expression" dxfId="33" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="32" priority="14">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1045">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="30" priority="16">
       <formula>NOT(VLOOKUP(F1045,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="17">
+    <cfRule type="expression" dxfId="29" priority="17">
       <formula>(VLOOKUP(F1045,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1045">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="28" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1045:D1045">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="25" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="24" priority="11">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="23" priority="12">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1045:D1045">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="22" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="20" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1045">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36793,12 +36791,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36851,15 +36846,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -36880,15 +36884,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeWebServices/Docs/MS-OXWSFOLD/MS-OXWSFOLD_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSFOLD/MS-OXWSFOLD_RequirementSpecification.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$1049</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$1051</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7416" uniqueCount="2343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7436" uniqueCount="2351">
   <si>
     <t>Req ID</t>
   </si>
@@ -8553,12 +8553,6 @@
     <t>MS-OXWSFOLD_R105212</t>
   </si>
   <si>
-    <t>MS-OXWSFOLD_R1152:i</t>
-  </si>
-  <si>
-    <t>MS-OXWSFOLD_R11521:i</t>
-  </si>
-  <si>
     <t>[In Appendix C: Product Behavior] Implementation does use StorageQuota which is the storage quota for a managed folder. (Exchange Server 2010 follow this behavior.)</t>
   </si>
   <si>
@@ -8566,6 +8560,36 @@
   </si>
   <si>
     <t>[In Appendix C: Product Behavior] Implementation does support value of "true" for CanRenameOrMove to indicate that the managed folder can be moved. (Exchange 2013 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSFOLD_R1051111.</t>
+  </si>
+  <si>
+    <t>MS-OXWSFOLD_R1052:i</t>
+  </si>
+  <si>
+    <t>MS-OXWSFOLD_R10521:i</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support value of "false" for CanRenameOrMove to indicate that the managed folder can not be moved. (Exchange 2013 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support value of "false" for CanRenameOrMove to indicate that the managed folder can not be renamed. (Exchange 2013 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-OXWSFOLD_R10511:i</t>
+  </si>
+  <si>
+    <t>MS-OXWSFOLD_R105111:i</t>
+  </si>
+  <si>
+    <t>MS-OXWSFOLD_R1051111</t>
+  </si>
+  <si>
+    <t>MS-OXWSFOLD_R1051112</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSFOLD_R1051112.</t>
   </si>
 </sst>
 </file>
@@ -9006,6 +9030,288 @@
   <dxfs count="71">
     <dxf>
       <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -9323,288 +9629,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -9734,34 +9758,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1049" tableType="xml" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" connectionId="1">
-  <autoFilter ref="A19:I1049"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1051" tableType="xml" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69" connectionId="1">
+  <autoFilter ref="A19:I1051"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="14">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="68">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="13">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="67">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="12">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="66">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="11">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="65">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="10">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="64">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="9">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="63">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="8">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="62">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="7">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="61">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="6">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="60">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -9770,12 +9794,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowBorderDxfId="59" tableBorderDxfId="58" totalsRowBorderDxfId="57">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="56"/>
+    <tableColumn id="2" name="Test" dataDxfId="55"/>
+    <tableColumn id="3" name="Description" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10103,7 +10127,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1051"/>
+  <dimension ref="A1:M1053"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -17743,7 +17767,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="30">
+    <row r="306" spans="1:9" ht="45">
       <c r="A306" s="18" t="s">
         <v>302</v>
       </c>
@@ -17765,12 +17789,14 @@
       <c r="G306" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H306" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I306" s="27"/>
-    </row>
-    <row r="307" spans="1:9" ht="30">
+      <c r="H306" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I306" s="16" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="45">
       <c r="A307" s="18" t="s">
         <v>2331</v>
       </c>
@@ -17792,10 +17818,12 @@
       <c r="G307" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H307" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I307" s="27"/>
+      <c r="H307" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I307" s="16" t="s">
+        <v>2350</v>
+      </c>
     </row>
     <row r="308" spans="1:9" ht="30">
       <c r="A308" s="25" t="s">
@@ -18533,7 +18561,7 @@
       <c r="I336" s="27"/>
     </row>
     <row r="337" spans="1:9" ht="30">
-      <c r="A337" s="25" t="s">
+      <c r="A337" s="18" t="s">
         <v>332</v>
       </c>
       <c r="B337" s="26" t="s">
@@ -34635,10 +34663,10 @@
         <v>1137</v>
       </c>
       <c r="C978" s="16" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="D978" s="18" t="s">
-        <v>2338</v>
+        <v>2342</v>
       </c>
       <c r="E978" s="25" t="s">
         <v>22</v>
@@ -34664,10 +34692,10 @@
         <v>1137</v>
       </c>
       <c r="C979" s="16" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="D979" s="18" t="s">
-        <v>2339</v>
+        <v>2343</v>
       </c>
       <c r="E979" s="25" t="s">
         <v>22</v>
@@ -34687,16 +34715,16 @@
     </row>
     <row r="980" spans="1:9" ht="45">
       <c r="A980" s="18" t="s">
-        <v>2326</v>
-      </c>
-      <c r="B980" s="20" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B980" s="26" t="s">
         <v>1137</v>
       </c>
       <c r="C980" s="16" t="s">
-        <v>2340</v>
+        <v>2345</v>
       </c>
       <c r="D980" s="18" t="s">
-        <v>2327</v>
+        <v>2346</v>
       </c>
       <c r="E980" s="25" t="s">
         <v>22</v>
@@ -34715,17 +34743,17 @@
       </c>
     </row>
     <row r="981" spans="1:9" ht="45">
-      <c r="A981" s="25" t="s">
-        <v>961</v>
+      <c r="A981" s="18" t="s">
+        <v>2349</v>
       </c>
       <c r="B981" s="26" t="s">
         <v>1137</v>
       </c>
       <c r="C981" s="16" t="s">
-        <v>1920</v>
-      </c>
-      <c r="D981" s="25" t="s">
-        <v>2019</v>
+        <v>2344</v>
+      </c>
+      <c r="D981" s="18" t="s">
+        <v>2347</v>
       </c>
       <c r="E981" s="25" t="s">
         <v>22</v>
@@ -34736,8 +34764,8 @@
       <c r="G981" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H981" s="25" t="s">
-        <v>21</v>
+      <c r="H981" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="I981" s="27" t="s">
         <v>2044</v>
@@ -34745,16 +34773,16 @@
     </row>
     <row r="982" spans="1:9" ht="45">
       <c r="A982" s="18" t="s">
-        <v>966</v>
-      </c>
-      <c r="B982" s="26" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B982" s="20" t="s">
         <v>1137</v>
       </c>
       <c r="C982" s="16" t="s">
-        <v>2297</v>
+        <v>2338</v>
       </c>
       <c r="D982" s="18" t="s">
-        <v>2022</v>
+        <v>2327</v>
       </c>
       <c r="E982" s="25" t="s">
         <v>22</v>
@@ -34765,23 +34793,25 @@
       <c r="G982" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H982" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I982" s="27"/>
-    </row>
-    <row r="983" spans="1:9" ht="30">
+      <c r="H982" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I982" s="27" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="983" spans="1:9" ht="45">
       <c r="A983" s="25" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="B983" s="26" t="s">
         <v>1137</v>
       </c>
-      <c r="C983" s="27" t="s">
-        <v>1921</v>
+      <c r="C983" s="16" t="s">
+        <v>1920</v>
       </c>
       <c r="D983" s="25" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="E983" s="25" t="s">
         <v>22</v>
@@ -34793,132 +34823,134 @@
         <v>15</v>
       </c>
       <c r="H983" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I983" s="27"/>
-    </row>
-    <row r="984" spans="1:9" ht="90">
+        <v>21</v>
+      </c>
+      <c r="I983" s="27" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="984" spans="1:9" ht="45">
       <c r="A984" s="18" t="s">
+        <v>966</v>
+      </c>
+      <c r="B984" s="26" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C984" s="16" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D984" s="18" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E984" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F984" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G984" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H984" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I984" s="27"/>
+    </row>
+    <row r="985" spans="1:9" ht="30">
+      <c r="A985" s="25" t="s">
+        <v>967</v>
+      </c>
+      <c r="B985" s="26" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C985" s="27" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D985" s="25" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E985" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F985" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G985" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H985" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I985" s="27"/>
+    </row>
+    <row r="986" spans="1:9" ht="90">
+      <c r="A986" s="18" t="s">
         <v>2081</v>
       </c>
-      <c r="B984" s="20" t="s">
+      <c r="B986" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C984" s="16" t="s">
+      <c r="C986" s="16" t="s">
         <v>2322</v>
       </c>
-      <c r="D984" s="18" t="s">
+      <c r="D986" s="18" t="s">
         <v>2324</v>
       </c>
-      <c r="E984" s="18" t="s">
+      <c r="E986" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F984" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G984" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H984" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I984" s="16"/>
-    </row>
-    <row r="985" spans="1:9" ht="75">
-      <c r="A985" s="18" t="s">
+      <c r="F986" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G986" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H986" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I986" s="16"/>
+    </row>
+    <row r="987" spans="1:9" ht="75">
+      <c r="A987" s="18" t="s">
         <v>2082</v>
       </c>
-      <c r="B985" s="20" t="s">
+      <c r="B987" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C985" s="16" t="s">
+      <c r="C987" s="16" t="s">
         <v>2323</v>
       </c>
-      <c r="D985" s="18" t="s">
+      <c r="D987" s="18" t="s">
         <v>2324</v>
       </c>
-      <c r="E985" s="18" t="s">
+      <c r="E987" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F985" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G985" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H985" s="18" t="s">
+      <c r="F987" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G987" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H987" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I985" s="16" t="s">
+      <c r="I987" s="16" t="s">
         <v>2044</v>
       </c>
-    </row>
-    <row r="986" spans="1:9" ht="45">
-      <c r="A986" s="25" t="s">
-        <v>962</v>
-      </c>
-      <c r="B986" s="26" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C986" s="16" t="s">
-        <v>2099</v>
-      </c>
-      <c r="D986" s="25" t="s">
-        <v>2020</v>
-      </c>
-      <c r="E986" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F986" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G986" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H986" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I986" s="27"/>
-    </row>
-    <row r="987" spans="1:9" ht="30">
-      <c r="A987" s="25" t="s">
-        <v>963</v>
-      </c>
-      <c r="B987" s="26" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C987" s="27" t="s">
-        <v>1922</v>
-      </c>
-      <c r="D987" s="25" t="s">
-        <v>2020</v>
-      </c>
-      <c r="E987" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F987" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G987" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H987" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I987" s="27"/>
     </row>
     <row r="988" spans="1:9" ht="45">
       <c r="A988" s="25" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B988" s="26" t="s">
         <v>1137</v>
       </c>
       <c r="C988" s="16" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="D988" s="25" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E988" s="25" t="s">
         <v>22</v>
@@ -34935,17 +34967,17 @@
       <c r="I988" s="27"/>
     </row>
     <row r="989" spans="1:9" ht="30">
-      <c r="A989" s="18" t="s">
-        <v>965</v>
+      <c r="A989" s="25" t="s">
+        <v>963</v>
       </c>
       <c r="B989" s="26" t="s">
         <v>1137</v>
       </c>
       <c r="C989" s="27" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D989" s="25" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E989" s="25" t="s">
         <v>22</v>
@@ -34962,73 +34994,71 @@
       <c r="I989" s="27"/>
     </row>
     <row r="990" spans="1:9" ht="45">
-      <c r="A990" s="18" t="s">
+      <c r="A990" s="25" t="s">
+        <v>964</v>
+      </c>
+      <c r="B990" s="26" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C990" s="16" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D990" s="25" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E990" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F990" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G990" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H990" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I990" s="27"/>
+    </row>
+    <row r="991" spans="1:9" ht="30">
+      <c r="A991" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="B991" s="26" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C991" s="27" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D991" s="25" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E991" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F991" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G991" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H991" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I991" s="27"/>
+    </row>
+    <row r="992" spans="1:9" ht="45">
+      <c r="A992" s="18" t="s">
         <v>2105</v>
-      </c>
-      <c r="B990" s="20" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C990" s="16" t="s">
-        <v>2108</v>
-      </c>
-      <c r="D990" s="18" t="s">
-        <v>2109</v>
-      </c>
-      <c r="E990" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F990" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G990" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H990" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I990" s="16"/>
-    </row>
-    <row r="991" spans="1:9" ht="45">
-      <c r="A991" s="18" t="s">
-        <v>2106</v>
-      </c>
-      <c r="B991" s="20" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C991" s="16" t="s">
-        <v>2107</v>
-      </c>
-      <c r="D991" s="18" t="s">
-        <v>2109</v>
-      </c>
-      <c r="E991" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F991" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G991" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H991" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I991" s="16" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="992" spans="1:9" ht="90">
-      <c r="A992" s="18" t="s">
-        <v>2158</v>
       </c>
       <c r="B992" s="20" t="s">
         <v>1137</v>
       </c>
       <c r="C992" s="16" t="s">
-        <v>2160</v>
+        <v>2108</v>
       </c>
       <c r="D992" s="18" t="s">
-        <v>2159</v>
+        <v>2109</v>
       </c>
       <c r="E992" s="18" t="s">
         <v>22</v>
@@ -35040,24 +35070,22 @@
         <v>15</v>
       </c>
       <c r="H992" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I992" s="16" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="993" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I992" s="16"/>
+    </row>
+    <row r="993" spans="1:9" ht="45">
       <c r="A993" s="18" t="s">
-        <v>2161</v>
+        <v>2106</v>
       </c>
       <c r="B993" s="20" t="s">
         <v>1137</v>
       </c>
       <c r="C993" s="16" t="s">
-        <v>2162</v>
+        <v>2107</v>
       </c>
       <c r="D993" s="18" t="s">
-        <v>2159</v>
+        <v>2109</v>
       </c>
       <c r="E993" s="18" t="s">
         <v>22</v>
@@ -35069,22 +35097,24 @@
         <v>15</v>
       </c>
       <c r="H993" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I993" s="16"/>
-    </row>
-    <row r="994" spans="1:9" ht="60">
+        <v>20</v>
+      </c>
+      <c r="I993" s="16" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="994" spans="1:9" ht="90">
       <c r="A994" s="18" t="s">
-        <v>2173</v>
+        <v>2158</v>
       </c>
       <c r="B994" s="20" t="s">
         <v>1137</v>
       </c>
       <c r="C994" s="16" t="s">
-        <v>2176</v>
+        <v>2160</v>
       </c>
       <c r="D994" s="18" t="s">
-        <v>2175</v>
+        <v>2159</v>
       </c>
       <c r="E994" s="18" t="s">
         <v>22</v>
@@ -35102,18 +35132,18 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="995" spans="1:9" ht="45">
+    <row r="995" spans="1:9" ht="60">
       <c r="A995" s="18" t="s">
-        <v>2174</v>
+        <v>2161</v>
       </c>
       <c r="B995" s="20" t="s">
         <v>1137</v>
       </c>
       <c r="C995" s="16" t="s">
-        <v>2177</v>
+        <v>2162</v>
       </c>
       <c r="D995" s="18" t="s">
-        <v>2175</v>
+        <v>2159</v>
       </c>
       <c r="E995" s="18" t="s">
         <v>22</v>
@@ -35125,80 +35155,80 @@
         <v>15</v>
       </c>
       <c r="H995" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I995" s="16"/>
+    </row>
+    <row r="996" spans="1:9" ht="60">
+      <c r="A996" s="18" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B996" s="20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C996" s="16" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D996" s="18" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E996" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F996" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G996" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H996" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I995" s="16" t="s">
+      <c r="I996" s="16" t="s">
         <v>2044</v>
       </c>
     </row>
-    <row r="996" spans="1:9" ht="60">
-      <c r="A996" s="25" t="s">
+    <row r="997" spans="1:9" ht="45">
+      <c r="A997" s="18" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B997" s="20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C997" s="16" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D997" s="18" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E997" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F997" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G997" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H997" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I997" s="16" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="998" spans="1:9" ht="60">
+      <c r="A998" s="25" t="s">
         <v>968</v>
-      </c>
-      <c r="B996" s="26" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C996" s="16" t="s">
-        <v>2183</v>
-      </c>
-      <c r="D996" s="25" t="s">
-        <v>2023</v>
-      </c>
-      <c r="E996" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F996" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G996" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H996" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I996" s="27"/>
-    </row>
-    <row r="997" spans="1:9" ht="45">
-      <c r="A997" s="25" t="s">
-        <v>969</v>
-      </c>
-      <c r="B997" s="26" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C997" s="27" t="s">
-        <v>1924</v>
-      </c>
-      <c r="D997" s="25" t="s">
-        <v>2023</v>
-      </c>
-      <c r="E997" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F997" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G997" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H997" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I997" s="27" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="998" spans="1:9" ht="45">
-      <c r="A998" s="25" t="s">
-        <v>970</v>
       </c>
       <c r="B998" s="26" t="s">
         <v>1137</v>
       </c>
       <c r="C998" s="16" t="s">
-        <v>2232</v>
+        <v>2183</v>
       </c>
       <c r="D998" s="25" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E998" s="25" t="s">
         <v>22</v>
@@ -35214,18 +35244,18 @@
       </c>
       <c r="I998" s="27"/>
     </row>
-    <row r="999" spans="1:9" ht="30">
+    <row r="999" spans="1:9" ht="45">
       <c r="A999" s="25" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B999" s="26" t="s">
         <v>1137</v>
       </c>
-      <c r="C999" s="16" t="s">
-        <v>2233</v>
+      <c r="C999" s="27" t="s">
+        <v>1924</v>
       </c>
       <c r="D999" s="25" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E999" s="25" t="s">
         <v>22</v>
@@ -35237,22 +35267,24 @@
         <v>15</v>
       </c>
       <c r="H999" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I999" s="27"/>
+        <v>20</v>
+      </c>
+      <c r="I999" s="27" t="s">
+        <v>2044</v>
+      </c>
     </row>
     <row r="1000" spans="1:9" ht="45">
       <c r="A1000" s="25" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B1000" s="26" t="s">
         <v>1137</v>
       </c>
       <c r="C1000" s="16" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="D1000" s="25" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E1000" s="25" t="s">
         <v>22</v>
@@ -35268,18 +35300,18 @@
       </c>
       <c r="I1000" s="27"/>
     </row>
-    <row r="1001" spans="1:9" ht="45">
+    <row r="1001" spans="1:9" ht="30">
       <c r="A1001" s="25" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B1001" s="26" t="s">
         <v>1137</v>
       </c>
       <c r="C1001" s="16" t="s">
-        <v>2059</v>
+        <v>2233</v>
       </c>
       <c r="D1001" s="25" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E1001" s="25" t="s">
         <v>22</v>
@@ -35291,78 +35323,82 @@
         <v>15</v>
       </c>
       <c r="H1001" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1001" s="27"/>
+    </row>
+    <row r="1002" spans="1:9" ht="45">
+      <c r="A1002" s="25" t="s">
+        <v>972</v>
+      </c>
+      <c r="B1002" s="26" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C1002" s="16" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D1002" s="25" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E1002" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1002" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1002" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1002" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1002" s="27"/>
+    </row>
+    <row r="1003" spans="1:9" ht="45">
+      <c r="A1003" s="25" t="s">
+        <v>973</v>
+      </c>
+      <c r="B1003" s="26" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C1003" s="16" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D1003" s="25" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E1003" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1003" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1003" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1003" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I1001" s="16" t="s">
+      <c r="I1003" s="16" t="s">
         <v>2044</v>
       </c>
     </row>
-    <row r="1002" spans="1:9" ht="360">
-      <c r="A1002" s="25" t="s">
+    <row r="1004" spans="1:9" ht="360">
+      <c r="A1004" s="25" t="s">
         <v>1010</v>
       </c>
-      <c r="B1002" s="20" t="s">
+      <c r="B1004" s="20" t="s">
         <v>2311</v>
       </c>
-      <c r="C1002" s="16" t="s">
+      <c r="C1004" s="16" t="s">
         <v>1961</v>
-      </c>
-      <c r="D1002" s="25"/>
-      <c r="E1002" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1002" s="25" t="s">
-        <v>2027</v>
-      </c>
-      <c r="G1002" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1002" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1002" s="27"/>
-    </row>
-    <row r="1003" spans="1:9" ht="180">
-      <c r="A1003" s="25" t="s">
-        <v>984</v>
-      </c>
-      <c r="B1003" s="20" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C1003" s="16" t="s">
-        <v>1936</v>
-      </c>
-      <c r="D1003" s="25"/>
-      <c r="E1003" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1003" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1003" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1003" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1003" s="27"/>
-    </row>
-    <row r="1004" spans="1:9" ht="409.5">
-      <c r="A1004" s="25" t="s">
-        <v>985</v>
-      </c>
-      <c r="B1004" s="20" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C1004" s="28" t="s">
-        <v>2060</v>
       </c>
       <c r="D1004" s="25"/>
       <c r="E1004" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1004" s="25" t="s">
-        <v>6</v>
+        <v>2027</v>
       </c>
       <c r="G1004" s="25" t="s">
         <v>15</v>
@@ -35372,40 +35408,40 @@
       </c>
       <c r="I1004" s="27"/>
     </row>
-    <row r="1005" spans="1:9" ht="30">
+    <row r="1005" spans="1:9" ht="180">
       <c r="A1005" s="25" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B1005" s="20" t="s">
-        <v>2305</v>
+        <v>1034</v>
       </c>
       <c r="C1005" s="16" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D1005" s="25"/>
       <c r="E1005" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1005" s="25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1005" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H1005" s="25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I1005" s="27"/>
     </row>
-    <row r="1006" spans="1:9" ht="135">
+    <row r="1006" spans="1:9" ht="409.5">
       <c r="A1006" s="25" t="s">
-        <v>987</v>
-      </c>
-      <c r="B1006" s="26" t="s">
-        <v>2305</v>
-      </c>
-      <c r="C1006" s="27" t="s">
-        <v>1938</v>
+        <v>985</v>
+      </c>
+      <c r="B1006" s="20" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C1006" s="28" t="s">
+        <v>2060</v>
       </c>
       <c r="D1006" s="25"/>
       <c r="E1006" s="25" t="s">
@@ -35418,19 +35454,19 @@
         <v>15</v>
       </c>
       <c r="H1006" s="25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I1006" s="27"/>
     </row>
     <row r="1007" spans="1:9" ht="30">
       <c r="A1007" s="25" t="s">
-        <v>988</v>
-      </c>
-      <c r="B1007" s="26" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1007" s="20" t="s">
         <v>2305</v>
       </c>
       <c r="C1007" s="16" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="D1007" s="25"/>
       <c r="E1007" s="25" t="s">
@@ -35443,69 +35479,69 @@
         <v>15</v>
       </c>
       <c r="H1007" s="25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I1007" s="27"/>
     </row>
-    <row r="1008" spans="1:9" ht="390">
+    <row r="1008" spans="1:9" ht="135">
       <c r="A1008" s="25" t="s">
-        <v>989</v>
-      </c>
-      <c r="B1008" s="20" t="s">
-        <v>2306</v>
-      </c>
-      <c r="C1008" s="16" t="s">
-        <v>1940</v>
+        <v>987</v>
+      </c>
+      <c r="B1008" s="26" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1008" s="27" t="s">
+        <v>1938</v>
       </c>
       <c r="D1008" s="25"/>
       <c r="E1008" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1008" s="25" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1008" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H1008" s="25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I1008" s="27"/>
     </row>
     <row r="1009" spans="1:9" ht="30">
       <c r="A1009" s="25" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B1009" s="26" t="s">
-        <v>2306</v>
-      </c>
-      <c r="C1009" s="27" t="s">
-        <v>1941</v>
+        <v>2305</v>
+      </c>
+      <c r="C1009" s="16" t="s">
+        <v>1939</v>
       </c>
       <c r="D1009" s="25"/>
       <c r="E1009" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1009" s="25" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1009" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H1009" s="25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I1009" s="27"/>
     </row>
-    <row r="1010" spans="1:9" ht="30">
+    <row r="1010" spans="1:9" ht="390">
       <c r="A1010" s="25" t="s">
-        <v>991</v>
-      </c>
-      <c r="B1010" s="26" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1010" s="20" t="s">
         <v>2306</v>
       </c>
-      <c r="C1010" s="27" t="s">
-        <v>1942</v>
+      <c r="C1010" s="16" t="s">
+        <v>1940</v>
       </c>
       <c r="D1010" s="25"/>
       <c r="E1010" s="25" t="s">
@@ -35518,19 +35554,19 @@
         <v>15</v>
       </c>
       <c r="H1010" s="25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I1010" s="27"/>
     </row>
     <row r="1011" spans="1:9" ht="30">
       <c r="A1011" s="25" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B1011" s="26" t="s">
         <v>2306</v>
       </c>
       <c r="C1011" s="27" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="D1011" s="25"/>
       <c r="E1011" s="25" t="s">
@@ -35547,15 +35583,15 @@
       </c>
       <c r="I1011" s="27"/>
     </row>
-    <row r="1012" spans="1:9" ht="60">
+    <row r="1012" spans="1:9" ht="30">
       <c r="A1012" s="25" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B1012" s="26" t="s">
         <v>2306</v>
       </c>
       <c r="C1012" s="27" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="D1012" s="25"/>
       <c r="E1012" s="25" t="s">
@@ -35570,19 +35606,17 @@
       <c r="H1012" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1012" s="27" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:9" ht="60">
+      <c r="I1012" s="27"/>
+    </row>
+    <row r="1013" spans="1:9" ht="30">
       <c r="A1013" s="25" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B1013" s="26" t="s">
         <v>2306</v>
       </c>
       <c r="C1013" s="27" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="D1013" s="25"/>
       <c r="E1013" s="25" t="s">
@@ -35597,19 +35631,17 @@
       <c r="H1013" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1013" s="27" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:9" ht="45">
+      <c r="I1013" s="27"/>
+    </row>
+    <row r="1014" spans="1:9" ht="60">
       <c r="A1014" s="25" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B1014" s="26" t="s">
         <v>2306</v>
       </c>
       <c r="C1014" s="27" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="D1014" s="25"/>
       <c r="E1014" s="25" t="s">
@@ -35625,18 +35657,18 @@
         <v>17</v>
       </c>
       <c r="I1014" s="27" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:9" ht="30">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9" ht="60">
       <c r="A1015" s="25" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B1015" s="26" t="s">
         <v>2306</v>
       </c>
       <c r="C1015" s="27" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="D1015" s="25"/>
       <c r="E1015" s="25" t="s">
@@ -35651,17 +35683,19 @@
       <c r="H1015" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1015" s="27"/>
-    </row>
-    <row r="1016" spans="1:9" ht="255">
+      <c r="I1015" s="27" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:9" ht="45">
       <c r="A1016" s="25" t="s">
-        <v>997</v>
-      </c>
-      <c r="B1016" s="20" t="s">
-        <v>2307</v>
-      </c>
-      <c r="C1016" s="16" t="s">
-        <v>1948</v>
+        <v>995</v>
+      </c>
+      <c r="B1016" s="26" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C1016" s="27" t="s">
+        <v>1946</v>
       </c>
       <c r="D1016" s="25"/>
       <c r="E1016" s="25" t="s">
@@ -35674,19 +35708,21 @@
         <v>15</v>
       </c>
       <c r="H1016" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1016" s="27"/>
-    </row>
-    <row r="1017" spans="1:9" ht="60">
+        <v>17</v>
+      </c>
+      <c r="I1016" s="27" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9" ht="30">
       <c r="A1017" s="25" t="s">
-        <v>998</v>
-      </c>
-      <c r="B1017" s="20" t="s">
-        <v>2308</v>
-      </c>
-      <c r="C1017" s="16" t="s">
-        <v>1949</v>
+        <v>996</v>
+      </c>
+      <c r="B1017" s="26" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C1017" s="27" t="s">
+        <v>1947</v>
       </c>
       <c r="D1017" s="25"/>
       <c r="E1017" s="25" t="s">
@@ -35701,19 +35737,17 @@
       <c r="H1017" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1017" s="27" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:9" ht="45">
+      <c r="I1017" s="27"/>
+    </row>
+    <row r="1018" spans="1:9" ht="255">
       <c r="A1018" s="25" t="s">
-        <v>999</v>
-      </c>
-      <c r="B1018" s="26" t="s">
-        <v>2308</v>
-      </c>
-      <c r="C1018" s="27" t="s">
-        <v>1950</v>
+        <v>997</v>
+      </c>
+      <c r="B1018" s="20" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1018" s="16" t="s">
+        <v>1948</v>
       </c>
       <c r="D1018" s="25"/>
       <c r="E1018" s="25" t="s">
@@ -35726,21 +35760,19 @@
         <v>15</v>
       </c>
       <c r="H1018" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1018" s="27" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I1018" s="27"/>
+    </row>
+    <row r="1019" spans="1:9" ht="60">
       <c r="A1019" s="25" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B1019" s="20" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="C1019" s="16" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="D1019" s="25"/>
       <c r="E1019" s="25" t="s">
@@ -35756,68 +35788,72 @@
         <v>17</v>
       </c>
       <c r="I1019" s="27" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:9" ht="409.5">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:9" ht="45">
       <c r="A1020" s="25" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B1020" s="20" t="s">
-        <v>2312</v>
-      </c>
-      <c r="C1020" s="16" t="s">
-        <v>1952</v>
+        <v>999</v>
+      </c>
+      <c r="B1020" s="26" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1020" s="27" t="s">
+        <v>1950</v>
       </c>
       <c r="D1020" s="25"/>
       <c r="E1020" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1020" s="25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1020" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H1020" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1020" s="27"/>
-    </row>
-    <row r="1021" spans="1:9" ht="60">
+        <v>17</v>
+      </c>
+      <c r="I1020" s="27" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:9" ht="45">
       <c r="A1021" s="25" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B1021" s="20" t="s">
-        <v>2312</v>
-      </c>
-      <c r="C1021" s="27" t="s">
-        <v>1953</v>
+        <v>2309</v>
+      </c>
+      <c r="C1021" s="16" t="s">
+        <v>1951</v>
       </c>
       <c r="D1021" s="25"/>
       <c r="E1021" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1021" s="25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1021" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H1021" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1021" s="27"/>
-    </row>
-    <row r="1022" spans="1:9" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I1021" s="27" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9" ht="409.5">
       <c r="A1022" s="25" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B1022" s="26" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B1022" s="20" t="s">
         <v>2312</v>
       </c>
-      <c r="C1022" s="27" t="s">
-        <v>1954</v>
+      <c r="C1022" s="16" t="s">
+        <v>1952</v>
       </c>
       <c r="D1022" s="25"/>
       <c r="E1022" s="25" t="s">
@@ -35834,22 +35870,22 @@
       </c>
       <c r="I1022" s="27"/>
     </row>
-    <row r="1023" spans="1:9" ht="409.5">
+    <row r="1023" spans="1:9" ht="60">
       <c r="A1023" s="25" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B1023" s="20" t="s">
-        <v>2310</v>
-      </c>
-      <c r="C1023" s="16" t="s">
-        <v>1955</v>
+        <v>2312</v>
+      </c>
+      <c r="C1023" s="27" t="s">
+        <v>1953</v>
       </c>
       <c r="D1023" s="25"/>
       <c r="E1023" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1023" s="25" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1023" s="25" t="s">
         <v>15</v>
@@ -35861,38 +35897,38 @@
     </row>
     <row r="1024" spans="1:9" ht="30">
       <c r="A1024" s="25" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B1024" s="26" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="C1024" s="27" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="D1024" s="25"/>
       <c r="E1024" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1024" s="25" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1024" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H1024" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1024" s="27"/>
     </row>
-    <row r="1025" spans="1:10" ht="30">
+    <row r="1025" spans="1:10" ht="409.5">
       <c r="A1025" s="25" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B1025" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1025" s="20" t="s">
         <v>2310</v>
       </c>
-      <c r="C1025" s="27" t="s">
-        <v>1957</v>
+      <c r="C1025" s="16" t="s">
+        <v>1955</v>
       </c>
       <c r="D1025" s="25"/>
       <c r="E1025" s="25" t="s">
@@ -35905,19 +35941,19 @@
         <v>15</v>
       </c>
       <c r="H1025" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1025" s="27"/>
     </row>
     <row r="1026" spans="1:10" ht="30">
       <c r="A1026" s="25" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B1026" s="26" t="s">
         <v>2310</v>
       </c>
       <c r="C1026" s="27" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="D1026" s="25"/>
       <c r="E1026" s="25" t="s">
@@ -35934,15 +35970,15 @@
       </c>
       <c r="I1026" s="27"/>
     </row>
-    <row r="1027" spans="1:10" ht="45">
+    <row r="1027" spans="1:10" ht="30">
       <c r="A1027" s="25" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B1027" s="26" t="s">
         <v>2310</v>
       </c>
       <c r="C1027" s="27" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="D1027" s="25"/>
       <c r="E1027" s="25" t="s">
@@ -35961,13 +35997,13 @@
     </row>
     <row r="1028" spans="1:10" ht="30">
       <c r="A1028" s="25" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B1028" s="26" t="s">
         <v>2310</v>
       </c>
       <c r="C1028" s="27" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="D1028" s="25"/>
       <c r="E1028" s="25" t="s">
@@ -35980,19 +36016,19 @@
         <v>15</v>
       </c>
       <c r="H1028" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1028" s="27"/>
     </row>
-    <row r="1029" spans="1:10" ht="30">
+    <row r="1029" spans="1:10" ht="45">
       <c r="A1029" s="25" t="s">
-        <v>974</v>
-      </c>
-      <c r="B1029" s="20" t="s">
-        <v>2302</v>
-      </c>
-      <c r="C1029" s="16" t="s">
-        <v>1925</v>
+        <v>1008</v>
+      </c>
+      <c r="B1029" s="26" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1029" s="27" t="s">
+        <v>1959</v>
       </c>
       <c r="D1029" s="25"/>
       <c r="E1029" s="25" t="s">
@@ -36005,19 +36041,19 @@
         <v>15</v>
       </c>
       <c r="H1029" s="25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I1029" s="27"/>
     </row>
     <row r="1030" spans="1:10" ht="30">
       <c r="A1030" s="25" t="s">
-        <v>975</v>
+        <v>1009</v>
       </c>
       <c r="B1030" s="26" t="s">
-        <v>2302</v>
+        <v>2310</v>
       </c>
       <c r="C1030" s="27" t="s">
-        <v>1926</v>
+        <v>1960</v>
       </c>
       <c r="D1030" s="25"/>
       <c r="E1030" s="25" t="s">
@@ -36030,19 +36066,19 @@
         <v>15</v>
       </c>
       <c r="H1030" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I1030" s="27"/>
     </row>
-    <row r="1031" spans="1:10" ht="45">
+    <row r="1031" spans="1:10" ht="30">
       <c r="A1031" s="25" t="s">
-        <v>976</v>
-      </c>
-      <c r="B1031" s="26" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1031" s="20" t="s">
         <v>2302</v>
       </c>
-      <c r="C1031" s="27" t="s">
-        <v>1927</v>
+      <c r="C1031" s="16" t="s">
+        <v>1925</v>
       </c>
       <c r="D1031" s="25"/>
       <c r="E1031" s="25" t="s">
@@ -36057,19 +36093,17 @@
       <c r="H1031" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1031" s="27" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:10" ht="60">
+      <c r="I1031" s="27"/>
+    </row>
+    <row r="1032" spans="1:10" ht="30">
       <c r="A1032" s="25" t="s">
-        <v>977</v>
-      </c>
-      <c r="B1032" s="20" t="s">
-        <v>2303</v>
-      </c>
-      <c r="C1032" s="16" t="s">
-        <v>1928</v>
+        <v>975</v>
+      </c>
+      <c r="B1032" s="26" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C1032" s="27" t="s">
+        <v>1926</v>
       </c>
       <c r="D1032" s="25"/>
       <c r="E1032" s="25" t="s">
@@ -36084,19 +36118,17 @@
       <c r="H1032" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1032" s="27" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:10" ht="60">
+      <c r="I1032" s="27"/>
+    </row>
+    <row r="1033" spans="1:10" ht="45">
       <c r="A1033" s="25" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B1033" s="26" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C1033" s="27" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="D1033" s="25"/>
       <c r="E1033" s="25" t="s">
@@ -36112,18 +36144,18 @@
         <v>17</v>
       </c>
       <c r="I1033" s="27" t="s">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:10" ht="30">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:10" ht="60">
       <c r="A1034" s="25" t="s">
-        <v>979</v>
-      </c>
-      <c r="B1034" s="26" t="s">
+        <v>977</v>
+      </c>
+      <c r="B1034" s="20" t="s">
         <v>2303</v>
       </c>
-      <c r="C1034" s="27" t="s">
-        <v>1930</v>
+      <c r="C1034" s="16" t="s">
+        <v>1928</v>
       </c>
       <c r="D1034" s="25"/>
       <c r="E1034" s="25" t="s">
@@ -36138,45 +36170,46 @@
       <c r="H1034" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1034" s="27"/>
-    </row>
-    <row r="1035" spans="1:10" ht="45">
-      <c r="A1035" s="46" t="s">
-        <v>2316</v>
-      </c>
-      <c r="B1035" s="47" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C1035" s="48" t="s">
-        <v>2300</v>
-      </c>
-      <c r="D1035" s="18"/>
-      <c r="E1035" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1035" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1035" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1035" s="18" t="s">
+      <c r="I1034" s="27" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:10" ht="60">
+      <c r="A1035" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="B1035" s="26" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C1035" s="27" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D1035" s="25"/>
+      <c r="E1035" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1035" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1035" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1035" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1035" s="16" t="s">
-        <v>2301</v>
-      </c>
-      <c r="J1035"/>
-    </row>
-    <row r="1036" spans="1:10" ht="409.5">
-      <c r="A1036" s="18" t="s">
-        <v>2317</v>
-      </c>
-      <c r="B1036" s="20" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C1036" s="16" t="s">
-        <v>1931</v>
+      <c r="I1035" s="27" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:10" ht="30">
+      <c r="A1036" s="25" t="s">
+        <v>979</v>
+      </c>
+      <c r="B1036" s="26" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C1036" s="27" t="s">
+        <v>1930</v>
       </c>
       <c r="D1036" s="25"/>
       <c r="E1036" s="25" t="s">
@@ -36189,69 +36222,72 @@
         <v>15</v>
       </c>
       <c r="H1036" s="25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I1036" s="27"/>
     </row>
     <row r="1037" spans="1:10" ht="45">
-      <c r="A1037" s="25" t="s">
-        <v>980</v>
-      </c>
-      <c r="B1037" s="20" t="s">
-        <v>2304</v>
-      </c>
-      <c r="C1037" s="16" t="s">
-        <v>1932</v>
-      </c>
-      <c r="D1037" s="25"/>
-      <c r="E1037" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1037" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1037" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1037" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1037" s="27"/>
-    </row>
-    <row r="1038" spans="1:10" ht="30">
-      <c r="A1038" s="25" t="s">
-        <v>981</v>
-      </c>
-      <c r="B1038" s="26" t="s">
-        <v>2304</v>
-      </c>
-      <c r="C1038" s="27" t="s">
-        <v>1933</v>
+      <c r="A1037" s="46" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B1037" s="47" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C1037" s="48" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D1037" s="18"/>
+      <c r="E1037" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1037" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1037" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1037" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1037" s="16" t="s">
+        <v>2301</v>
+      </c>
+      <c r="J1037"/>
+    </row>
+    <row r="1038" spans="1:10" ht="409.5">
+      <c r="A1038" s="18" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B1038" s="20" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C1038" s="16" t="s">
+        <v>1931</v>
       </c>
       <c r="D1038" s="25"/>
       <c r="E1038" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1038" s="25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1038" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H1038" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1038" s="27"/>
     </row>
     <row r="1039" spans="1:10" ht="45">
       <c r="A1039" s="25" t="s">
-        <v>982</v>
-      </c>
-      <c r="B1039" s="26" t="s">
+        <v>980</v>
+      </c>
+      <c r="B1039" s="20" t="s">
         <v>2304</v>
       </c>
-      <c r="C1039" s="27" t="s">
-        <v>1934</v>
+      <c r="C1039" s="16" t="s">
+        <v>1932</v>
       </c>
       <c r="D1039" s="25"/>
       <c r="E1039" s="25" t="s">
@@ -36268,15 +36304,15 @@
       </c>
       <c r="I1039" s="27"/>
     </row>
-    <row r="1040" spans="1:10" ht="45">
+    <row r="1040" spans="1:10" ht="30">
       <c r="A1040" s="25" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B1040" s="26" t="s">
         <v>2304</v>
       </c>
       <c r="C1040" s="27" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="D1040" s="25"/>
       <c r="E1040" s="25" t="s">
@@ -36295,19 +36331,17 @@
     </row>
     <row r="1041" spans="1:10" ht="45">
       <c r="A1041" s="25" t="s">
-        <v>1011</v>
+        <v>982</v>
       </c>
       <c r="B1041" s="26" t="s">
-        <v>1137</v>
+        <v>2304</v>
       </c>
       <c r="C1041" s="27" t="s">
-        <v>1962</v>
-      </c>
-      <c r="D1041" s="25" t="s">
-        <v>2026</v>
-      </c>
+        <v>1934</v>
+      </c>
+      <c r="D1041" s="25"/>
       <c r="E1041" s="25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1041" s="25" t="s">
         <v>6</v>
@@ -36316,25 +36350,23 @@
         <v>15</v>
       </c>
       <c r="H1041" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1041" s="27"/>
     </row>
     <row r="1042" spans="1:10" ht="45">
       <c r="A1042" s="25" t="s">
-        <v>1012</v>
+        <v>983</v>
       </c>
       <c r="B1042" s="26" t="s">
-        <v>1137</v>
+        <v>2304</v>
       </c>
       <c r="C1042" s="27" t="s">
-        <v>1963</v>
-      </c>
-      <c r="D1042" s="25" t="s">
-        <v>2026</v>
-      </c>
+        <v>1935</v>
+      </c>
+      <c r="D1042" s="25"/>
       <c r="E1042" s="25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1042" s="25" t="s">
         <v>6</v>
@@ -36343,19 +36375,19 @@
         <v>15</v>
       </c>
       <c r="H1042" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1042" s="27"/>
     </row>
     <row r="1043" spans="1:10" ht="45">
-      <c r="A1043" s="18" t="s">
-        <v>1013</v>
+      <c r="A1043" s="25" t="s">
+        <v>1011</v>
       </c>
       <c r="B1043" s="26" t="s">
         <v>1137</v>
       </c>
       <c r="C1043" s="27" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="D1043" s="25" t="s">
         <v>2026</v>
@@ -36376,13 +36408,13 @@
     </row>
     <row r="1044" spans="1:10" ht="45">
       <c r="A1044" s="25" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B1044" s="26" t="s">
         <v>1137</v>
       </c>
       <c r="C1044" s="27" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="D1044" s="25" t="s">
         <v>2026</v>
@@ -36401,95 +36433,99 @@
       </c>
       <c r="I1044" s="27"/>
     </row>
-    <row r="1045" spans="1:10" ht="150">
-      <c r="A1045" s="49" t="s">
+    <row r="1045" spans="1:10" ht="45">
+      <c r="A1045" s="18" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1045" s="26" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C1045" s="27" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D1045" s="25" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E1045" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1045" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1045" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1045" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1045" s="27"/>
+    </row>
+    <row r="1046" spans="1:10" ht="45">
+      <c r="A1046" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1046" s="26" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C1046" s="27" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D1046" s="25" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E1046" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1046" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1046" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1046" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1046" s="27"/>
+    </row>
+    <row r="1047" spans="1:10" ht="150">
+      <c r="A1047" s="49" t="s">
         <v>2313</v>
       </c>
-      <c r="B1045" s="50" t="s">
+      <c r="B1047" s="50" t="s">
         <v>1137</v>
       </c>
-      <c r="C1045" s="48" t="s">
+      <c r="C1047" s="48" t="s">
         <v>2314</v>
       </c>
-      <c r="D1045" s="49" t="s">
+      <c r="D1047" s="49" t="s">
         <v>2318</v>
       </c>
-      <c r="E1045" s="18" t="s">
+      <c r="E1047" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F1045" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1045" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1045" s="18" t="s">
+      <c r="F1047" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1047" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1047" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I1045" s="16" t="s">
+      <c r="I1047" s="16" t="s">
         <v>2044</v>
       </c>
-      <c r="J1045"/>
-    </row>
-    <row r="1046" spans="1:10" ht="30">
-      <c r="A1046" s="25" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B1046" s="26" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C1046" s="27" t="s">
-        <v>1966</v>
-      </c>
-      <c r="D1046" s="25"/>
-      <c r="E1046" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1046" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1046" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1046" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1046" s="27"/>
-    </row>
-    <row r="1047" spans="1:10" ht="30">
-      <c r="A1047" s="25" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B1047" s="26" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C1047" s="27" t="s">
-        <v>1967</v>
-      </c>
-      <c r="D1047" s="25"/>
-      <c r="E1047" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1047" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1047" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1047" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1047" s="27"/>
+      <c r="J1047"/>
     </row>
     <row r="1048" spans="1:10" ht="30">
       <c r="A1048" s="25" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B1048" s="26" t="s">
         <v>1056</v>
       </c>
       <c r="C1048" s="27" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="D1048" s="25"/>
       <c r="E1048" s="25" t="s">
@@ -36502,19 +36538,19 @@
         <v>15</v>
       </c>
       <c r="H1048" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1048" s="27"/>
     </row>
     <row r="1049" spans="1:10" ht="30">
       <c r="A1049" s="25" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B1049" s="26" t="s">
-        <v>1027</v>
+        <v>1056</v>
       </c>
       <c r="C1049" s="27" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="D1049" s="25"/>
       <c r="E1049" s="25" t="s">
@@ -36527,17 +36563,67 @@
         <v>15</v>
       </c>
       <c r="H1049" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1049" s="27"/>
+    </row>
+    <row r="1050" spans="1:10" ht="30">
+      <c r="A1050" s="25" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1050" s="26" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C1050" s="27" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D1050" s="25"/>
+      <c r="E1050" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1050" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1050" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1050" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1050" s="27"/>
+    </row>
+    <row r="1051" spans="1:10" ht="30">
+      <c r="A1051" s="25" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1051" s="26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C1051" s="27" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D1051" s="25"/>
+      <c r="E1051" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1051" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1051" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1051" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I1049" s="27"/>
-    </row>
-    <row r="1050" spans="1:10">
-      <c r="A1050" s="3"/>
-      <c r="B1050" s="9"/>
-    </row>
-    <row r="1051" spans="1:10">
-      <c r="A1051" s="3"/>
-      <c r="B1051" s="9"/>
+      <c r="I1051" s="27"/>
+    </row>
+    <row r="1052" spans="1:10">
+      <c r="A1052" s="3"/>
+      <c r="B1052" s="9"/>
+    </row>
+    <row r="1053" spans="1:10">
+      <c r="A1053" s="3"/>
+      <c r="B1053" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -36554,224 +36640,224 @@
     <mergeCell ref="B17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1004:B1004 A20:H45 D1004:I1004 A1005:I1034 I1003:I1028 A1036:I1044 A1046:I1049 A34:I1003">
-    <cfRule type="expression" dxfId="70" priority="93">
+  <conditionalFormatting sqref="A1006:B1006 A20:H45 D1006:I1006 A1007:I1036 I1005:I1030 A1038:I1046 A1048:I1051 A34:I1005">
+    <cfRule type="expression" dxfId="53" priority="93">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="94">
+    <cfRule type="expression" dxfId="52" priority="94">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="101">
+    <cfRule type="expression" dxfId="51" priority="101">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1004:B1004 A20:H45 D1004:I1004 A1005:I1034 I1003:I1028 A1036:I1044 A1046:I1049 A34:I1003">
-    <cfRule type="expression" dxfId="67" priority="47">
+  <conditionalFormatting sqref="A1006:B1006 A20:H45 D1006:I1006 A1007:I1036 I1005:I1030 A1038:I1046 A1048:I1051 A34:I1005">
+    <cfRule type="expression" dxfId="50" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="48">
+    <cfRule type="expression" dxfId="49" priority="48">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="49">
+    <cfRule type="expression" dxfId="48" priority="49">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1036:F1044 F1046:F1049 F20:F1034">
-    <cfRule type="expression" dxfId="64" priority="53">
+  <conditionalFormatting sqref="F1038:F1046 F1048:F1051 F20:F1036">
+    <cfRule type="expression" dxfId="47" priority="53">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="54">
+    <cfRule type="expression" dxfId="46" priority="54">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I45">
-    <cfRule type="expression" dxfId="62" priority="44">
+    <cfRule type="expression" dxfId="45" priority="44">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="45">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="46">
+    <cfRule type="expression" dxfId="43" priority="46">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I45">
-    <cfRule type="expression" dxfId="59" priority="41">
+    <cfRule type="expression" dxfId="42" priority="41">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="42">
+    <cfRule type="expression" dxfId="41" priority="42">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="43">
+    <cfRule type="expression" dxfId="40" priority="43">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1004">
-    <cfRule type="expression" dxfId="56" priority="38">
+  <conditionalFormatting sqref="C1006">
+    <cfRule type="expression" dxfId="39" priority="38">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="39">
+    <cfRule type="expression" dxfId="38" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="40">
+    <cfRule type="expression" dxfId="37" priority="40">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1004">
-    <cfRule type="expression" dxfId="53" priority="35">
+  <conditionalFormatting sqref="C1006">
+    <cfRule type="expression" dxfId="36" priority="35">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="36">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="37">
+    <cfRule type="expression" dxfId="34" priority="37">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1035:I1035">
-    <cfRule type="expression" dxfId="50" priority="32">
+  <conditionalFormatting sqref="D1037:I1037">
+    <cfRule type="expression" dxfId="33" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="33">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="34">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1035:I1035">
-    <cfRule type="expression" dxfId="47" priority="27">
+  <conditionalFormatting sqref="D1037:I1037">
+    <cfRule type="expression" dxfId="30" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="28">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="29">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1035">
-    <cfRule type="expression" dxfId="44" priority="30">
-      <formula>NOT(VLOOKUP(F1035,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F1037">
+    <cfRule type="expression" dxfId="27" priority="30">
+      <formula>NOT(VLOOKUP(F1037,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="31">
-      <formula>(VLOOKUP(F1035,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="26" priority="31">
+      <formula>(VLOOKUP(F1037,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1035:C1035">
-    <cfRule type="expression" dxfId="42" priority="21">
+  <conditionalFormatting sqref="A1037:C1037">
+    <cfRule type="expression" dxfId="25" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="22">
+    <cfRule type="expression" dxfId="24" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="23">
+    <cfRule type="expression" dxfId="23" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1035:C1035">
-    <cfRule type="expression" dxfId="39" priority="24">
+  <conditionalFormatting sqref="A1037:C1037">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="25">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="26">
+    <cfRule type="expression" dxfId="20" priority="26">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1045:I1045">
-    <cfRule type="expression" dxfId="36" priority="18">
+  <conditionalFormatting sqref="E1047:I1047">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="20">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1045:I1045">
-    <cfRule type="expression" dxfId="33" priority="13">
+  <conditionalFormatting sqref="E1047:I1047">
+    <cfRule type="expression" dxfId="16" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="14">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1045">
-    <cfRule type="expression" dxfId="30" priority="16">
-      <formula>NOT(VLOOKUP(F1045,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F1047">
+    <cfRule type="expression" dxfId="13" priority="16">
+      <formula>NOT(VLOOKUP(F1047,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="17">
-      <formula>(VLOOKUP(F1045,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="12" priority="17">
+      <formula>(VLOOKUP(F1047,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1045">
-    <cfRule type="expression" dxfId="28" priority="1">
+  <conditionalFormatting sqref="A1047">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1045:D1045">
-    <cfRule type="expression" dxfId="25" priority="10">
+  <conditionalFormatting sqref="B1047:D1047">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1045:D1045">
-    <cfRule type="expression" dxfId="22" priority="7">
+  <conditionalFormatting sqref="B1047:D1047">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1045">
-    <cfRule type="expression" dxfId="19" priority="4">
+  <conditionalFormatting sqref="A1047">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F1049">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F1051">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E1049">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E1051">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G1049">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G1051">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1036:H1044 H1046:H1049 H20:H1034">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1038:H1046 H1048:H1051 H20:H1036">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1035 H1045">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1037 H1047">
       <formula1>"Message Deserialization, Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36781,7 +36867,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 B10:B16 B18:B162 C3 B981:B1051 B308:B977 B163:B304 B306" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 B10:B16 B18:B162 C3 B983:B1053 B308:B977 B163:B304 B306" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -36791,12 +36877,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -36845,6 +36925,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -36855,20 +36941,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36883,6 +36955,20 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>

--- a/ExchangeWebServices/Docs/MS-OXWSFOLD/MS-OXWSFOLD_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSFOLD/MS-OXWSFOLD_RequirementSpecification.xlsx
@@ -8515,12 +8515,6 @@
     <t>MS-OXWSFOLD_R10521:i</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support value of "false" for CanRenameOrMove to indicate that the managed folder can not be moved. (Exchange 2013 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support value of "false" for CanRenameOrMove to indicate that the managed folder can not be renamed. (Exchange 2013 and above follow this behavior.)</t>
-  </si>
-  <si>
     <t>MS-OXWSFOLD_R10511:i</t>
   </si>
   <si>
@@ -8579,6 +8573,12 @@
   </si>
   <si>
     <t>MS-OXWSCDATA_R83</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support value of "false" for CanRenameOrMove to indicate that the managed folder can not be renamed. (Exchange 2007, Exchange 2010 and Exchange2013 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support value of "false" for CanRenameOrMove to indicate that the managed folder can not be moved. (Exchange 2007, Exchange 2010 and Exchange2013 follow this behavior)</t>
   </si>
 </sst>
 </file>
@@ -10582,7 +10582,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="54" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="19" customFormat="1" ht="60">
@@ -13829,7 +13829,7 @@
         <v>17</v>
       </c>
       <c r="I143" s="16" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="J143" s="53"/>
     </row>
@@ -18083,7 +18083,7 @@
         <v>17</v>
       </c>
       <c r="I303" s="16" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="J303" s="53"/>
     </row>
@@ -18170,7 +18170,7 @@
         <v>15</v>
       </c>
       <c r="H306" s="18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I306" s="16" t="s">
         <v>2323</v>
@@ -18200,10 +18200,10 @@
         <v>15</v>
       </c>
       <c r="H307" s="18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I307" s="16" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="J307" s="53"/>
     </row>
@@ -27731,7 +27731,7 @@
         <v>17</v>
       </c>
       <c r="I672" s="16" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="J672" s="53"/>
     </row>
@@ -29197,7 +29197,7 @@
         <v>17</v>
       </c>
       <c r="I728" s="16" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="J728" s="53"/>
     </row>
@@ -30977,7 +30977,7 @@
         <v>17</v>
       </c>
       <c r="I796" s="16" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="J796" s="53"/>
     </row>
@@ -35767,16 +35767,16 @@
     </row>
     <row r="980" spans="1:10" ht="45">
       <c r="A980" s="18" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="B980" s="26" t="s">
         <v>1135</v>
       </c>
       <c r="C980" s="16" t="s">
-        <v>2327</v>
+        <v>2346</v>
       </c>
       <c r="D980" s="18" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="E980" s="25" t="s">
         <v>22</v>
@@ -35797,16 +35797,16 @@
     </row>
     <row r="981" spans="1:10" ht="45">
       <c r="A981" s="18" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="B981" s="26" t="s">
         <v>1135</v>
       </c>
       <c r="C981" s="16" t="s">
-        <v>2326</v>
+        <v>2347</v>
       </c>
       <c r="D981" s="18" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="E981" s="25" t="s">
         <v>22</v>
@@ -36739,7 +36739,7 @@
         <v>17</v>
       </c>
       <c r="I1014" s="16" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="J1014" s="53"/>
     </row>
@@ -37137,7 +37137,7 @@
         <v>17</v>
       </c>
       <c r="I1029" s="16" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="J1029" s="53"/>
     </row>
@@ -37165,7 +37165,7 @@
         <v>17</v>
       </c>
       <c r="I1030" s="16" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="J1030" s="53"/>
     </row>
@@ -37277,13 +37277,13 @@
         <v>17</v>
       </c>
       <c r="I1034" s="16" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="J1034" s="53"/>
     </row>
     <row r="1035" spans="1:10" ht="45">
       <c r="A1035" s="46" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="B1035" s="47" t="s">
         <v>1137</v>
@@ -37305,13 +37305,13 @@
         <v>17</v>
       </c>
       <c r="I1035" s="16" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="J1035" s="53"/>
     </row>
     <row r="1036" spans="1:10" ht="409.5">
       <c r="A1036" s="18" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="B1036" s="20" t="s">
         <v>1137</v>
@@ -37581,13 +37581,13 @@
     </row>
     <row r="1046" spans="1:10" ht="45">
       <c r="A1046" s="51" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="B1046" s="50" t="s">
         <v>1135</v>
       </c>
       <c r="C1046" s="52" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="D1046" s="49" t="s">
         <v>2300</v>
@@ -38025,21 +38025,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -38088,10 +38073,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -38111,16 +38118,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeWebServices/Docs/MS-OXWSFOLD/MS-OXWSFOLD_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSFOLD/MS-OXWSFOLD_RequirementSpecification.xlsx
@@ -8542,9 +8542,6 @@
     <t>Verified by derived requirements: MS-OXWSFOLD_R42101, MS-OXWSFOLD_R42102, MS-OXWSFOLD_R42103, MS-OXWSFOLD_R42104, MS-OXWSFOLD_R42105.</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXWSFOLD_R8101011, MS-OXWSFOLD_R8101012.</t>
-  </si>
-  <si>
     <t>Verified by derived requirement: MS-OXWSFOLD_R42101.</t>
   </si>
   <si>
@@ -8579,6 +8576,9 @@
   </si>
   <si>
     <t>[In Appendix C: Product Behavior] Implementation does support value of "false" for CanRenameOrMove to indicate that the managed folder can not be moved. (Exchange 2007, Exchange 2010 and Exchange2013 follow this behavior)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXWSFOLD_R8101011, MS-OXWSFOLD_R8101012.</t>
   </si>
 </sst>
 </file>
@@ -10227,7 +10227,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M1052"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -10582,7 +10584,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="54" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="19" customFormat="1" ht="60">
@@ -14350,7 +14352,7 @@
         <v>15</v>
       </c>
       <c r="H162" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I162" s="16"/>
       <c r="J162" s="53"/>
@@ -14376,7 +14378,7 @@
         <v>15</v>
       </c>
       <c r="H163" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I163" s="16"/>
       <c r="J163" s="53"/>
@@ -14428,7 +14430,7 @@
         <v>15</v>
       </c>
       <c r="H165" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I165" s="16"/>
       <c r="J165" s="53"/>
@@ -14480,7 +14482,7 @@
         <v>15</v>
       </c>
       <c r="H167" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I167" s="16"/>
       <c r="J167" s="53"/>
@@ -18083,7 +18085,7 @@
         <v>17</v>
       </c>
       <c r="I303" s="16" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="J303" s="53"/>
     </row>
@@ -18170,7 +18172,7 @@
         <v>15</v>
       </c>
       <c r="H306" s="18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I306" s="16" t="s">
         <v>2323</v>
@@ -18200,7 +18202,7 @@
         <v>15</v>
       </c>
       <c r="H307" s="18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I307" s="16" t="s">
         <v>2330</v>
@@ -19206,7 +19208,7 @@
       <c r="J345" s="53"/>
     </row>
     <row r="346" spans="1:10">
-      <c r="A346" s="25" t="s">
+      <c r="A346" s="18" t="s">
         <v>341</v>
       </c>
       <c r="B346" s="26" t="s">
@@ -19225,8 +19227,8 @@
       <c r="G346" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H346" s="25" t="s">
-        <v>18</v>
+      <c r="H346" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="I346" s="27"/>
       <c r="J346" s="53"/>
@@ -20686,7 +20688,7 @@
       <c r="J401" s="53"/>
     </row>
     <row r="402" spans="1:10" ht="30">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="18" t="s">
         <v>401</v>
       </c>
       <c r="B402" s="26" t="s">
@@ -26642,7 +26644,7 @@
       <c r="J630" s="53"/>
     </row>
     <row r="631" spans="1:10" ht="45">
-      <c r="A631" s="25" t="s">
+      <c r="A631" s="18" t="s">
         <v>622</v>
       </c>
       <c r="B631" s="26" t="s">
@@ -27840,7 +27842,7 @@
         <v>15</v>
       </c>
       <c r="H676" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I676" s="16"/>
       <c r="J676" s="53"/>
@@ -35773,7 +35775,7 @@
         <v>1135</v>
       </c>
       <c r="C980" s="16" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="D980" s="18" t="s">
         <v>2326</v>
@@ -35803,7 +35805,7 @@
         <v>1135</v>
       </c>
       <c r="C981" s="16" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="D981" s="18" t="s">
         <v>2327</v>
@@ -36342,7 +36344,7 @@
       <c r="J999" s="53"/>
     </row>
     <row r="1000" spans="1:10" ht="45">
-      <c r="A1000" s="25" t="s">
+      <c r="A1000" s="18" t="s">
         <v>970</v>
       </c>
       <c r="B1000" s="26" t="s">
@@ -36739,7 +36741,7 @@
         <v>17</v>
       </c>
       <c r="I1014" s="16" t="s">
-        <v>2335</v>
+        <v>2347</v>
       </c>
       <c r="J1014" s="53"/>
     </row>
@@ -37137,7 +37139,7 @@
         <v>17</v>
       </c>
       <c r="I1029" s="16" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="J1029" s="53"/>
     </row>
@@ -37165,7 +37167,7 @@
         <v>17</v>
       </c>
       <c r="I1030" s="16" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="J1030" s="53"/>
     </row>
@@ -37277,13 +37279,13 @@
         <v>17</v>
       </c>
       <c r="I1034" s="16" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="J1034" s="53"/>
     </row>
     <row r="1035" spans="1:10" ht="45">
       <c r="A1035" s="46" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B1035" s="47" t="s">
         <v>1137</v>
@@ -37305,13 +37307,13 @@
         <v>17</v>
       </c>
       <c r="I1035" s="16" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="J1035" s="53"/>
     </row>
     <row r="1036" spans="1:10" ht="409.5">
       <c r="A1036" s="18" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B1036" s="20" t="s">
         <v>1137</v>
@@ -37336,7 +37338,7 @@
       <c r="J1036" s="53"/>
     </row>
     <row r="1037" spans="1:10" ht="45">
-      <c r="A1037" s="25" t="s">
+      <c r="A1037" s="18" t="s">
         <v>978</v>
       </c>
       <c r="B1037" s="20" t="s">
@@ -37355,8 +37357,8 @@
       <c r="G1037" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H1037" s="25" t="s">
-        <v>20</v>
+      <c r="H1037" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I1037" s="27"/>
       <c r="J1037" s="53"/>
@@ -37581,13 +37583,13 @@
     </row>
     <row r="1046" spans="1:10" ht="45">
       <c r="A1046" s="51" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="B1046" s="50" t="s">
         <v>1135</v>
       </c>
       <c r="C1046" s="52" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="D1046" s="49" t="s">
         <v>2300</v>
@@ -38025,6 +38027,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -38073,32 +38090,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -38118,9 +38113,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeWebServices/Docs/MS-OXWSFOLD/MS-OXWSFOLD_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSFOLD/MS-OXWSFOLD_RequirementSpecification.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7426" uniqueCount="2348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7425" uniqueCount="2347">
   <si>
     <t>Req ID</t>
   </si>
@@ -8549,9 +8549,6 @@
   </si>
   <si>
     <t>Verified by derived requirements: MS-OXWSFOLD_R34303, MS-OXWSFOLD_R37803.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirements: MS-OXWSFOLD_R1052, MS-OXWSFOLD_R10521, MS-OXWSFOLD_R10511, MS-OXWSFOLD_R105111.</t>
   </si>
   <si>
     <t>MS-OXWSCDATA_R4000</t>
@@ -10227,9 +10224,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M1052"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -10584,7 +10579,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="54" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="19" customFormat="1" ht="60">
@@ -18061,7 +18056,7 @@
       <c r="I302" s="27"/>
       <c r="J302" s="53"/>
     </row>
-    <row r="303" spans="1:10" ht="90">
+    <row r="303" spans="1:10" ht="30">
       <c r="A303" s="18" t="s">
         <v>300</v>
       </c>
@@ -18084,9 +18079,7 @@
       <c r="H303" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I303" s="16" t="s">
-        <v>2338</v>
-      </c>
+      <c r="I303" s="16"/>
       <c r="J303" s="53"/>
     </row>
     <row r="304" spans="1:10" ht="45">
@@ -35775,7 +35768,7 @@
         <v>1135</v>
       </c>
       <c r="C980" s="16" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D980" s="18" t="s">
         <v>2326</v>
@@ -35805,7 +35798,7 @@
         <v>1135</v>
       </c>
       <c r="C981" s="16" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="D981" s="18" t="s">
         <v>2327</v>
@@ -36741,7 +36734,7 @@
         <v>17</v>
       </c>
       <c r="I1014" s="16" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="J1014" s="53"/>
     </row>
@@ -37285,7 +37278,7 @@
     </row>
     <row r="1035" spans="1:10" ht="45">
       <c r="A1035" s="46" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B1035" s="47" t="s">
         <v>1137</v>
@@ -37307,13 +37300,13 @@
         <v>17</v>
       </c>
       <c r="I1035" s="16" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="J1035" s="53"/>
     </row>
     <row r="1036" spans="1:10" ht="409.5">
       <c r="A1036" s="18" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B1036" s="20" t="s">
         <v>1137</v>
@@ -37583,13 +37576,13 @@
     </row>
     <row r="1046" spans="1:10" ht="45">
       <c r="A1046" s="51" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="B1046" s="50" t="s">
         <v>1135</v>
       </c>
       <c r="C1046" s="52" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D1046" s="49" t="s">
         <v>2300</v>
@@ -38027,21 +38020,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -38090,10 +38068,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -38113,16 +38113,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeWebServices/Docs/MS-OXWSFOLD/MS-OXWSFOLD_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSFOLD/MS-OXWSFOLD_RequirementSpecification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WatchmanIssue\MS-OXWSFOLD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Interop-TestSuites\ExchangeWebServices\Docs\MS-OXWSFOLD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9976,23 +9976,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -10028,23 +10011,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -38020,6 +37986,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -38068,22 +38043,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38098,7 +38072,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -38110,12 +38084,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ExchangeWebServices/Docs/MS-OXWSFOLD/MS-OXWSFOLD_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSFOLD/MS-OXWSFOLD_RequirementSpecification.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-xiahu\Desktop\test suite\Interop-TestSuites-1-master\ExchangeWebServices\Docs\MS-OXWSFOLD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E5E66C-82A5-4697-A456-0F11C5C34F4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68CCBA5-B851-43A6-889B-1C6C7DCD6E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$1053</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$1055</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7446" uniqueCount="2356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7464" uniqueCount="2363">
   <si>
     <t>Req ID</t>
   </si>
@@ -7304,9 +7304,6 @@
   </si>
   <si>
     <t>MS-OXWSFOLD</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does include the EmptyFolder operation.(Exchange Server 2010 SP2 and above follow this behavior.)</t>
   </si>
   <si>
     <t xml:space="preserve">[In m:ArrayOfResponseMessagesType Complex Type] The type [ArrayOfResponseMessagesType] is defined as follow:
@@ -7984,9 +7981,6 @@
     <t>[In tns:CopyFolderSoapIn Message]Impersonation which Element/Type is t:ExchangeImpersonation ([MS-OXWSCDATA] section 2.2.4.33).</t>
   </si>
   <si>
-    <t>[In tns:CopyFolderSoapOut Message]ServerVersion which Element/Type is :ServerVersionInfo ([MS-OXWSCDATA] section 2.2.3.12).</t>
-  </si>
-  <si>
     <t>[In m:CopyFolderResponseType Complex Type]The CopyFolderResponseType complex type extends the BaseResponseMessageType complex type, as specified in [MS-OXWSCDATA] section 2.2.4.18.</t>
   </si>
   <si>
@@ -8168,12 +8162,6 @@
     <t>[In tns:MoveFolderSoapIn Message]Impersonation which Element/Type is t:ExchangeImpersonation ([MS-OXWSCDATA] section 2.2.3.3).</t>
   </si>
   <si>
-    <t>[In tns:MoveFolderSoapIn Message]MailboxCulture which Element/Type is t:MailboxCulture  ([MS-OXWSCDATA] section 2.2.3.7).</t>
-  </si>
-  <si>
-    <t>[In tns:MoveFolderSoapIn Message]RequestVersion which Element/Type is t:RequestServerVersion ([MS-OXWSCDATA] section 2.2.3.11).</t>
-  </si>
-  <si>
     <t>[In m:MoveFolderResponseType Complex Type]The MoveFolderResponseType complex type extends the BaseResponseMessageType complex type, as specified in [MS-OXWSCDATA] section 2.2.4.18.</t>
   </si>
   <si>
@@ -8503,9 +8491,6 @@
     <t>[In tns:UpdateFolderSoapIn Message]RequestVersion which Element/Type is t:RequestServerVersion ([MS-OXWSCDATA] section 2.2.3.9).</t>
   </si>
   <si>
-    <t>[In tns:CopyFolderSoapIn Message]MailboxCulture which Element/Type is t:MailboxCulture ([MS-OXWSCDATA] section 2.2.3.6).</t>
-  </si>
-  <si>
     <t>[In tns:CreateFolderSoapIn Message]MailboxCulture which Element/Type is t:MailboxCulture ([MS-OXWSCDATA] section 2.2.3.6).</t>
   </si>
   <si>
@@ -8567,15 +8552,6 @@
   </si>
   <si>
     <t>[In Appendix C: Product Behavior] Implementation does return an ErrorInvalidPermissionSettings response code if any field of BasePermissionType other than UserId field is set, and the PermissionLevel field is not set to "Custom". (&lt;9&gt; Section 2.2.4.15:  Exchange 2007 and Exchange 2010 will return an ErrorInvalidPermissionSettings ([MS-OXWSCDATA] section 2.2.5.24) response code if any field of BasePermissionType other than UserId field is set, and the PermissionLevel field is not set to "Custom".)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] The implementation does support Contributor in PermissionLevelType specifies that the user can create items in the folder and read those items. (&lt;11&gt; Section 2.2.5.3:  In Microsoft Exchange Server 2013 Service Pack 1 (SP1) and Exchange 2016 the user can create items in the folder and read those items.)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not support the CopyFolder operation if either the source folder or the destination folder is a public folder. (&lt;12&gt; Section 3.1.4.1:  Exchange 2013 and Exchange 2016 do not support the CopyFolder operation if either the source folder or the destination folder is a public folder.)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not include the EmptyFolder operation. (&lt;13&gt; Section 3.1.4.5: Exchange 2007 and the initial release version of Exchange 2010 do not include the EmptyFolder operation.)</t>
   </si>
   <si>
     <t>2.2.3.10</t>
@@ -8604,6 +8580,51 @@
   </si>
   <si>
     <t>[In t:ContactsFolderType Complex Type] The type of the element of PermissionSet is t:PermissionSetType ([MS-OXWSFOLD] section 2.2.4.14)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSFOLD_R4003.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSFOLD_R4004.</t>
+  </si>
+  <si>
+    <t>[In tns:CopyFolderSoapIn Message]MailboxCulture which Element/Type is t:MailboxCulture ([MS-OXWSCDATA] section 2.2.4.45).</t>
+  </si>
+  <si>
+    <t>[In tns:CopyFolderSoapOut Message]ServerVersion which Element/Type is :ServerVersionInfo ([MS-OXWSCDATA] section 2.2.3.10).</t>
+  </si>
+  <si>
+    <t>[In tns:MoveFolderSoapIn Message]RequestVersion which Element/Type is t:RequestServerVersion ([MS-OXWSCDATA] section 2.2.3.9).</t>
+  </si>
+  <si>
+    <t>[In tns:MoveFolderSoapIn Message]MailboxCulture which Element/Type is t:MailboxCulture  ([MS-OXWSCDATA] section 2.2.3.6).</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not support the CopyFolder operation if either the source folder or the destination folder is a public folder. (&lt;12&gt; Section 3.1.4.1:  Exchange 2013 , Exchange 2016,and Exchange 2019 do not support the CopyFolder operation if either the source folder or the destination folder is a public folder.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] The implementation does support Contributor in PermissionLevelType specifies that the user can create items in the folder and read those items. (&lt;11&gt; Section 2.2.5.3:  In Microsoft Exchange Server 2013 Service Pack 1 (SP1) , Exchange 2016,and Exchange 2019  the user can create items in the folder and read those items.)</t>
+  </si>
+  <si>
+    <t>MS-OXWSFOLD_R5665</t>
+  </si>
+  <si>
+    <t>MS-OXWSFOLD_R5666</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not support the EmptyFolder operation. (&lt;13&gt; Section 3.1.4.5: Exchange 2013, Exchange 2016, and Exchange 2019 do not support the EmptyFolder operation for use with public folders.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not include the EmptyFolder operation. (&lt;14&gt; Section 3.1.4.5:Exchange 2007 and the initial release version of Exchange 2010 do not include the EmptyFolder operation.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the EmptyFolder operation.(Exchange 2007 and Exchange 2010 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does include the EmptyFolder operation.(Exchange 2013 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSFOLD_R5666.</t>
   </si>
 </sst>
 </file>
@@ -8993,6 +9014,9 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9052,9 +9076,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9883,8 +9904,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:J1053" tableType="xml" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84" connectionId="1">
-  <autoFilter ref="A19:J1053" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:J1055" tableType="xml" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84" connectionId="1">
+  <autoFilter ref="A19:J1055" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="83">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -10253,18 +10274,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1055"/>
+  <dimension ref="A1:M1057"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1046" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1053" sqref="C1053"/>
+    <sheetView tabSelected="1" topLeftCell="A1001" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1005" sqref="C1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="10" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="93.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
@@ -10288,7 +10309,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -10322,16 +10343,16 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="33"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -10343,13 +10364,13 @@
       <c r="B5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
@@ -10357,16 +10378,16 @@
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
@@ -10374,16 +10395,16 @@
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
@@ -10391,16 +10412,16 @@
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="67"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
@@ -10408,16 +10429,16 @@
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
@@ -10425,16 +10446,16 @@
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="70"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
@@ -10442,16 +10463,16 @@
       <c r="A11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="70" t="s">
-        <v>2041</v>
-      </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
+      <c r="B11" s="71" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C11" s="72"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="59"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
@@ -10535,16 +10556,16 @@
       <c r="A16" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="58"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
@@ -10552,16 +10573,16 @@
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="74" t="s">
-        <v>2043</v>
-      </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
+      <c r="B17" s="75" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
@@ -10569,16 +10590,16 @@
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="56" t="s">
-        <v>2042</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="58"/>
+      <c r="B18" s="57" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
@@ -10612,7 +10633,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="54" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="19" customFormat="1" ht="60">
@@ -10623,7 +10644,7 @@
         <v>1017</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18" t="s">
@@ -11301,7 +11322,7 @@
         <v>1024</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="25" t="s">
@@ -11477,13 +11498,13 @@
     </row>
     <row r="53" spans="1:10" ht="30">
       <c r="A53" s="18" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>1024</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
       <c r="D53" s="53"/>
       <c r="E53" s="53" t="s">
@@ -11743,7 +11764,7 @@
         <v>32</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="25" t="s">
@@ -11951,7 +11972,7 @@
         <v>1025</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="25" t="s">
@@ -12003,7 +12024,7 @@
         <v>1025</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="D73" s="25"/>
       <c r="E73" s="25" t="s">
@@ -12055,7 +12076,7 @@
         <v>1025</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D75" s="25"/>
       <c r="E75" s="25" t="s">
@@ -12107,7 +12128,7 @@
         <v>1025</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D77" s="25"/>
       <c r="E77" s="25" t="s">
@@ -12159,7 +12180,7 @@
         <v>1025</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="D79" s="25"/>
       <c r="E79" s="25" t="s">
@@ -12419,7 +12440,7 @@
         <v>1027</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="D89" s="25"/>
       <c r="E89" s="25" t="s">
@@ -12471,7 +12492,7 @@
         <v>1028</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="D91" s="25"/>
       <c r="E91" s="25" t="s">
@@ -12523,7 +12544,7 @@
         <v>1028</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="D93" s="25"/>
       <c r="E93" s="25" t="s">
@@ -12575,7 +12596,7 @@
         <v>1028</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
       <c r="D95" s="25"/>
       <c r="E95" s="25" t="s">
@@ -12705,7 +12726,7 @@
         <v>1028</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="D100" s="25"/>
       <c r="E100" s="25" t="s">
@@ -13197,13 +13218,13 @@
     </row>
     <row r="119" spans="1:10" ht="30">
       <c r="A119" s="18" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B119" s="20" t="s">
         <v>1028</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="D119" s="18"/>
       <c r="E119" s="18" t="s">
@@ -13843,7 +13864,7 @@
         <v>1028</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="D143" s="25"/>
       <c r="E143" s="25" t="s">
@@ -13885,7 +13906,7 @@
         <v>17</v>
       </c>
       <c r="I144" s="16" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
       <c r="J144" s="53"/>
     </row>
@@ -13897,7 +13918,7 @@
         <v>1028</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D145" s="25" t="s">
         <v>1977</v>
@@ -13925,7 +13946,7 @@
         <v>1028</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D146" s="25" t="s">
         <v>1977</v>
@@ -13953,7 +13974,7 @@
         <v>1028</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D147" s="25" t="s">
         <v>1978</v>
@@ -13981,7 +14002,7 @@
         <v>1028</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D148" s="25" t="s">
         <v>1978</v>
@@ -14009,7 +14030,7 @@
         <v>1028</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D149" s="25" t="s">
         <v>1979</v>
@@ -14037,7 +14058,7 @@
         <v>1028</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D150" s="25" t="s">
         <v>1979</v>
@@ -14065,7 +14086,7 @@
         <v>1028</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D151" s="25" t="s">
         <v>1980</v>
@@ -14093,7 +14114,7 @@
         <v>1028</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D152" s="25" t="s">
         <v>1980</v>
@@ -14121,7 +14142,7 @@
         <v>1028</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D153" s="25" t="s">
         <v>1981</v>
@@ -14149,7 +14170,7 @@
         <v>1028</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D154" s="25" t="s">
         <v>1981</v>
@@ -14177,7 +14198,7 @@
         <v>1028</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D155" s="18" t="s">
         <v>1982</v>
@@ -14205,7 +14226,7 @@
         <v>1028</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D156" s="18" t="s">
         <v>1982</v>
@@ -14341,7 +14362,7 @@
         <v>1028</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="D161" s="25"/>
       <c r="E161" s="25" t="s">
@@ -14367,7 +14388,7 @@
         <v>1028</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>2251</v>
+        <v>2247</v>
       </c>
       <c r="D162" s="25"/>
       <c r="E162" s="25" t="s">
@@ -14387,13 +14408,13 @@
     </row>
     <row r="163" spans="1:10" ht="60">
       <c r="A163" s="18" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B163" s="20" t="s">
         <v>1028</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>2252</v>
+        <v>2248</v>
       </c>
       <c r="D163" s="18"/>
       <c r="E163" s="18" t="s">
@@ -14419,7 +14440,7 @@
         <v>1028</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D164" s="25"/>
       <c r="E164" s="25" t="s">
@@ -14471,7 +14492,7 @@
         <v>1028</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D166" s="25"/>
       <c r="E166" s="25" t="s">
@@ -14517,13 +14538,13 @@
     </row>
     <row r="168" spans="1:10" ht="30">
       <c r="A168" s="18" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B168" s="20" t="s">
         <v>1028</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="D168" s="18"/>
       <c r="E168" s="18" t="s">
@@ -14543,13 +14564,13 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="18" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B169" s="20" t="s">
         <v>1028</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D169" s="18"/>
       <c r="E169" s="18" t="s">
@@ -14575,7 +14596,7 @@
         <v>1028</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="D170" s="25"/>
       <c r="E170" s="25" t="s">
@@ -14653,7 +14674,7 @@
         <v>1029</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="D173" s="25"/>
       <c r="E173" s="25" t="s">
@@ -14731,7 +14752,7 @@
         <v>1029</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D176" s="25"/>
       <c r="E176" s="25" t="s">
@@ -14913,7 +14934,7 @@
         <v>1030</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="D183" s="25"/>
       <c r="E183" s="25" t="s">
@@ -15091,13 +15112,13 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="18" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B190" s="20" t="s">
         <v>1030</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="D190" s="18"/>
       <c r="E190" s="18" t="s">
@@ -15305,13 +15326,13 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198" s="18" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B198" s="20" t="s">
         <v>1030</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="D198" s="18"/>
       <c r="E198" s="18" t="s">
@@ -16027,19 +16048,19 @@
         <v>17</v>
       </c>
       <c r="I224" s="16" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="J224" s="53"/>
     </row>
     <row r="225" spans="1:10">
       <c r="A225" s="18" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B225" s="20" t="s">
         <v>1030</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="D225" s="18"/>
       <c r="E225" s="18" t="s">
@@ -16275,19 +16296,19 @@
         <v>17</v>
       </c>
       <c r="I233" s="16" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="J233" s="53"/>
     </row>
     <row r="234" spans="1:10">
       <c r="A234" s="18" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B234" s="20" t="s">
         <v>1030</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D234" s="18"/>
       <c r="E234" s="18" t="s">
@@ -16395,7 +16416,7 @@
         <v>1030</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D238" s="25"/>
       <c r="E238" s="25" t="s">
@@ -16421,7 +16442,7 @@
         <v>1030</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="D239" s="25"/>
       <c r="E239" s="25" t="s">
@@ -16441,13 +16462,13 @@
     </row>
     <row r="240" spans="1:10" ht="30">
       <c r="A240" s="18" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B240" s="20" t="s">
         <v>1031</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D240" s="18"/>
       <c r="E240" s="18" t="s">
@@ -16467,13 +16488,13 @@
     </row>
     <row r="241" spans="1:10" ht="30">
       <c r="A241" s="18" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B241" s="20" t="s">
         <v>1031</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="D241" s="18"/>
       <c r="E241" s="18" t="s">
@@ -16493,13 +16514,13 @@
     </row>
     <row r="242" spans="1:10" ht="180">
       <c r="A242" s="18" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B242" s="20" t="s">
         <v>1031</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D242" s="18"/>
       <c r="E242" s="18" t="s">
@@ -16519,13 +16540,13 @@
     </row>
     <row r="243" spans="1:10" ht="30">
       <c r="A243" s="18" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B243" s="20" t="s">
         <v>1031</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D243" s="18"/>
       <c r="E243" s="18" t="s">
@@ -16545,13 +16566,13 @@
     </row>
     <row r="244" spans="1:10" ht="30">
       <c r="A244" s="18" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B244" s="20" t="s">
         <v>1031</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D244" s="18"/>
       <c r="E244" s="18" t="s">
@@ -16571,13 +16592,13 @@
     </row>
     <row r="245" spans="1:10" ht="30">
       <c r="A245" s="18" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B245" s="20" t="s">
         <v>1031</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="D245" s="18"/>
       <c r="E245" s="18" t="s">
@@ -16597,13 +16618,13 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246" s="18" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B246" s="20" t="s">
         <v>1031</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D246" s="18"/>
       <c r="E246" s="18" t="s">
@@ -16623,13 +16644,13 @@
     </row>
     <row r="247" spans="1:10" ht="30">
       <c r="A247" s="18" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B247" s="20" t="s">
         <v>1031</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D247" s="18"/>
       <c r="E247" s="18" t="s">
@@ -16649,13 +16670,13 @@
     </row>
     <row r="248" spans="1:10" ht="30">
       <c r="A248" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B248" s="20" t="s">
         <v>1031</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="D248" s="18"/>
       <c r="E248" s="18" t="s">
@@ -16675,13 +16696,13 @@
     </row>
     <row r="249" spans="1:10" ht="30">
       <c r="A249" s="18" t="s">
-        <v>2250</v>
+        <v>2246</v>
       </c>
       <c r="B249" s="20" t="s">
         <v>1031</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="D249" s="18"/>
       <c r="E249" s="18" t="s">
@@ -16941,7 +16962,7 @@
         <v>1033</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D259" s="25"/>
       <c r="E259" s="25" t="s">
@@ -17045,7 +17066,7 @@
         <v>1033</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="D263" s="25"/>
       <c r="E263" s="25" t="s">
@@ -17305,7 +17326,7 @@
         <v>1034</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="D273" s="25"/>
       <c r="E273" s="25" t="s">
@@ -17383,7 +17404,7 @@
         <v>1034</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D276" s="25"/>
       <c r="E276" s="25" t="s">
@@ -17461,7 +17482,7 @@
         <v>1035</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="D279" s="25"/>
       <c r="E279" s="25" t="s">
@@ -17539,7 +17560,7 @@
         <v>1035</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="D282" s="25"/>
       <c r="E282" s="25" t="s">
@@ -17781,7 +17802,7 @@
         <v>1035</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="D291" s="25"/>
       <c r="E291" s="25" t="s">
@@ -17833,7 +17854,7 @@
         <v>1035</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="D293" s="25"/>
       <c r="E293" s="25" t="s">
@@ -17859,7 +17880,7 @@
         <v>1035</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D294" s="25"/>
       <c r="E294" s="25" t="s">
@@ -18063,7 +18084,7 @@
       <c r="I301" s="27"/>
       <c r="J301" s="53"/>
     </row>
-    <row r="302" spans="1:10" ht="30">
+    <row r="302" spans="1:10" ht="45">
       <c r="A302" s="18" t="s">
         <v>298</v>
       </c>
@@ -18071,7 +18092,7 @@
         <v>1036</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="D302" s="25"/>
       <c r="E302" s="25" t="s">
@@ -18081,12 +18102,14 @@
         <v>6</v>
       </c>
       <c r="G302" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H302" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I302" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="I302" s="16" t="s">
+        <v>2348</v>
+      </c>
       <c r="J302" s="53"/>
     </row>
     <row r="303" spans="1:10" ht="30">
@@ -18149,7 +18172,7 @@
         <v>1036</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>2260</v>
+        <v>2256</v>
       </c>
       <c r="D305" s="25" t="s">
         <v>1987</v>
@@ -18167,19 +18190,19 @@
         <v>17</v>
       </c>
       <c r="I305" s="16" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
       <c r="J305" s="53"/>
     </row>
     <row r="306" spans="1:10" ht="45">
       <c r="A306" s="18" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="B306" s="26" t="s">
         <v>1036</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="D306" s="25" t="s">
         <v>1987</v>
@@ -18197,7 +18220,7 @@
         <v>17</v>
       </c>
       <c r="I306" s="16" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
       <c r="J306" s="53"/>
     </row>
@@ -18209,7 +18232,7 @@
         <v>1036</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="D307" s="25" t="s">
         <v>1987</v>
@@ -18227,19 +18250,19 @@
         <v>17</v>
       </c>
       <c r="I307" s="16" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
       <c r="J307" s="53"/>
     </row>
     <row r="308" spans="1:10" ht="45">
       <c r="A308" s="18" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B308" s="26" t="s">
         <v>1036</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
       <c r="D308" s="25" t="s">
         <v>1987</v>
@@ -18257,11 +18280,11 @@
         <v>17</v>
       </c>
       <c r="I308" s="16" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
       <c r="J308" s="53"/>
     </row>
-    <row r="309" spans="1:10" ht="30">
+    <row r="309" spans="1:10" ht="45">
       <c r="A309" s="18" t="s">
         <v>303</v>
       </c>
@@ -18269,7 +18292,7 @@
         <v>1036</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="D309" s="25"/>
       <c r="E309" s="25" t="s">
@@ -18279,12 +18302,14 @@
         <v>6</v>
       </c>
       <c r="G309" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H309" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I309" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="I309" s="16" t="s">
+        <v>2349</v>
+      </c>
       <c r="J309" s="53"/>
     </row>
     <row r="310" spans="1:10" ht="30">
@@ -18451,7 +18476,7 @@
         <v>1036</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D316" s="25" t="s">
         <v>1988</v>
@@ -18479,7 +18504,7 @@
         <v>1036</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D317" s="25" t="s">
         <v>1988</v>
@@ -18865,7 +18890,7 @@
         <v>17</v>
       </c>
       <c r="I331" s="16" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="J331" s="53"/>
     </row>
@@ -19137,7 +19162,7 @@
         <v>1037</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="D342" s="25"/>
       <c r="E342" s="25" t="s">
@@ -19189,7 +19214,7 @@
         <v>1037</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="D344" s="25"/>
       <c r="E344" s="25" t="s">
@@ -19346,7 +19371,7 @@
         <v>344</v>
       </c>
       <c r="B350" s="20" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C350" s="27" t="s">
         <v>1387</v>
@@ -19372,10 +19397,10 @@
         <v>345</v>
       </c>
       <c r="B351" s="26" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="D351" s="25"/>
       <c r="E351" s="25" t="s">
@@ -19391,7 +19416,7 @@
         <v>17</v>
       </c>
       <c r="I351" s="16" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="J351" s="53"/>
     </row>
@@ -19400,7 +19425,7 @@
         <v>346</v>
       </c>
       <c r="B352" s="26" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C352" s="27" t="s">
         <v>1388</v>
@@ -19426,7 +19451,7 @@
         <v>347</v>
       </c>
       <c r="B353" s="26" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C353" s="27" t="s">
         <v>1389</v>
@@ -19452,7 +19477,7 @@
         <v>348</v>
       </c>
       <c r="B354" s="26" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C354" s="27" t="s">
         <v>1390</v>
@@ -19478,7 +19503,7 @@
         <v>349</v>
       </c>
       <c r="B355" s="26" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C355" s="27" t="s">
         <v>1391</v>
@@ -19506,7 +19531,7 @@
         <v>350</v>
       </c>
       <c r="B356" s="26" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C356" s="27" t="s">
         <v>1392</v>
@@ -19532,7 +19557,7 @@
         <v>351</v>
       </c>
       <c r="B357" s="26" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C357" s="27" t="s">
         <v>1393</v>
@@ -19560,7 +19585,7 @@
         <v>352</v>
       </c>
       <c r="B358" s="26" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C358" s="27" t="s">
         <v>1394</v>
@@ -19588,7 +19613,7 @@
         <v>353</v>
       </c>
       <c r="B359" s="26" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C359" s="27" t="s">
         <v>1395</v>
@@ -19614,7 +19639,7 @@
         <v>354</v>
       </c>
       <c r="B360" s="26" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C360" s="27" t="s">
         <v>1396</v>
@@ -19640,7 +19665,7 @@
         <v>355</v>
       </c>
       <c r="B361" s="26" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C361" s="27" t="s">
         <v>1397</v>
@@ -19666,7 +19691,7 @@
         <v>356</v>
       </c>
       <c r="B362" s="26" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C362" s="27" t="s">
         <v>1398</v>
@@ -19694,7 +19719,7 @@
         <v>357</v>
       </c>
       <c r="B363" s="26" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C363" s="27" t="s">
         <v>1399</v>
@@ -19722,7 +19747,7 @@
         <v>358</v>
       </c>
       <c r="B364" s="26" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C364" s="27" t="s">
         <v>1400</v>
@@ -19777,7 +19802,7 @@
         <v>1136</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="D366" s="25"/>
       <c r="E366" s="25" t="s">
@@ -19829,7 +19854,7 @@
         <v>1136</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="D368" s="25"/>
       <c r="E368" s="25" t="s">
@@ -19881,7 +19906,7 @@
         <v>1136</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D370" s="25"/>
       <c r="E370" s="25" t="s">
@@ -19933,7 +19958,7 @@
         <v>1136</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="D372" s="25"/>
       <c r="E372" s="25" t="s">
@@ -19979,13 +20004,13 @@
     </row>
     <row r="374" spans="1:10" ht="30">
       <c r="A374" s="18" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B374" s="20" t="s">
         <v>1136</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="D374" s="18"/>
       <c r="E374" s="25" t="s">
@@ -20005,13 +20030,13 @@
     </row>
     <row r="375" spans="1:10" ht="30">
       <c r="A375" s="18" t="s">
-        <v>2248</v>
+        <v>2244</v>
       </c>
       <c r="B375" s="20" t="s">
         <v>1136</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="D375" s="18"/>
       <c r="E375" s="25" t="s">
@@ -20037,7 +20062,7 @@
         <v>1136</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="D376" s="25"/>
       <c r="E376" s="25" t="s">
@@ -20719,7 +20744,7 @@
         <v>1041</v>
       </c>
       <c r="C402" s="16" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="D402" s="25"/>
       <c r="E402" s="25" t="s">
@@ -20735,7 +20760,7 @@
         <v>17</v>
       </c>
       <c r="I402" s="16" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="J402" s="53"/>
     </row>
@@ -21189,7 +21214,7 @@
         <v>1048</v>
       </c>
       <c r="C420" s="16" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="D420" s="25"/>
       <c r="E420" s="25" t="s">
@@ -21267,7 +21292,7 @@
         <v>1048</v>
       </c>
       <c r="C423" s="16" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="D423" s="25"/>
       <c r="E423" s="25" t="s">
@@ -21319,7 +21344,7 @@
         <v>1048</v>
       </c>
       <c r="C425" s="16" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D425" s="25"/>
       <c r="E425" s="25" t="s">
@@ -21345,7 +21370,7 @@
         <v>33</v>
       </c>
       <c r="C426" s="16" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="D426" s="25"/>
       <c r="E426" s="25" t="s">
@@ -21523,13 +21548,13 @@
     </row>
     <row r="433" spans="1:10" ht="45">
       <c r="A433" s="18" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B433" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C433" s="16" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="D433" s="18"/>
       <c r="E433" s="25" t="s">
@@ -21549,13 +21574,13 @@
     </row>
     <row r="434" spans="1:10" ht="45">
       <c r="A434" s="18" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B434" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C434" s="16" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D434" s="18"/>
       <c r="E434" s="18" t="s">
@@ -21815,7 +21840,7 @@
         <v>1050</v>
       </c>
       <c r="C444" s="16" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="D444" s="25"/>
       <c r="E444" s="25" t="s">
@@ -21867,7 +21892,7 @@
         <v>1050</v>
       </c>
       <c r="C446" s="16" t="s">
-        <v>2322</v>
+        <v>2350</v>
       </c>
       <c r="D446" s="25"/>
       <c r="E446" s="25" t="s">
@@ -21945,7 +21970,7 @@
         <v>1050</v>
       </c>
       <c r="C449" s="16" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="D449" s="25"/>
       <c r="E449" s="25" t="s">
@@ -22153,7 +22178,7 @@
         <v>1051</v>
       </c>
       <c r="C457" s="16" t="s">
-        <v>2154</v>
+        <v>2351</v>
       </c>
       <c r="D457" s="25"/>
       <c r="E457" s="25" t="s">
@@ -22172,13 +22197,13 @@
       <c r="J457" s="53"/>
     </row>
     <row r="458" spans="1:10" ht="30">
-      <c r="A458" s="25" t="s">
+      <c r="A458" s="18" t="s">
         <v>454</v>
       </c>
       <c r="B458" s="26" t="s">
         <v>1051</v>
       </c>
-      <c r="C458" s="27" t="s">
+      <c r="C458" s="16" t="s">
         <v>1481</v>
       </c>
       <c r="D458" s="25"/>
@@ -22491,7 +22516,7 @@
         <v>1056</v>
       </c>
       <c r="C470" s="16" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="D470" s="25"/>
       <c r="E470" s="25" t="s">
@@ -22569,7 +22594,7 @@
         <v>1057</v>
       </c>
       <c r="C473" s="16" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="D473" s="25"/>
       <c r="E473" s="25" t="s">
@@ -22875,13 +22900,13 @@
     </row>
     <row r="485" spans="1:10" ht="45">
       <c r="A485" s="18" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="B485" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C485" s="16" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="D485" s="18"/>
       <c r="E485" s="18" t="s">
@@ -22901,13 +22926,13 @@
     </row>
     <row r="486" spans="1:10" ht="45">
       <c r="A486" s="18" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="B486" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C486" s="16" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="D486" s="18"/>
       <c r="E486" s="18" t="s">
@@ -23167,7 +23192,7 @@
         <v>1059</v>
       </c>
       <c r="C496" s="16" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="D496" s="25"/>
       <c r="E496" s="25" t="s">
@@ -23219,7 +23244,7 @@
         <v>1059</v>
       </c>
       <c r="C498" s="16" t="s">
-        <v>2323</v>
+        <v>2318</v>
       </c>
       <c r="D498" s="25"/>
       <c r="E498" s="25" t="s">
@@ -23297,7 +23322,7 @@
         <v>1059</v>
       </c>
       <c r="C501" s="16" t="s">
-        <v>2324</v>
+        <v>2319</v>
       </c>
       <c r="D501" s="25"/>
       <c r="E501" s="25" t="s">
@@ -23557,7 +23582,7 @@
         <v>1060</v>
       </c>
       <c r="C511" s="16" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="D511" s="25"/>
       <c r="E511" s="25" t="s">
@@ -23947,7 +23972,7 @@
         <v>1065</v>
       </c>
       <c r="C526" s="16" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="D526" s="25"/>
       <c r="E526" s="25" t="s">
@@ -24025,7 +24050,7 @@
         <v>1066</v>
       </c>
       <c r="C529" s="16" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="D529" s="25"/>
       <c r="E529" s="25" t="s">
@@ -24103,7 +24128,7 @@
         <v>1066</v>
       </c>
       <c r="C532" s="16" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="D532" s="25"/>
       <c r="E532" s="25" t="s">
@@ -24311,7 +24336,7 @@
         <v>1067</v>
       </c>
       <c r="C540" s="16" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="D540" s="25"/>
       <c r="E540" s="25" t="s">
@@ -24363,7 +24388,7 @@
         <v>1067</v>
       </c>
       <c r="C542" s="16" t="s">
-        <v>2333</v>
+        <v>2328</v>
       </c>
       <c r="D542" s="25"/>
       <c r="E542" s="25" t="s">
@@ -24415,7 +24440,7 @@
         <v>1067</v>
       </c>
       <c r="C544" s="16" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="D544" s="25"/>
       <c r="E544" s="25" t="s">
@@ -24519,7 +24544,7 @@
         <v>1067</v>
       </c>
       <c r="C548" s="16" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="D548" s="25"/>
       <c r="E548" s="25" t="s">
@@ -24799,13 +24824,13 @@
     </row>
     <row r="559" spans="1:10" ht="45">
       <c r="A559" s="18" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="B559" s="20" t="s">
         <v>1068</v>
       </c>
       <c r="C559" s="16" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="D559" s="18"/>
       <c r="E559" s="25" t="s">
@@ -24825,13 +24850,13 @@
     </row>
     <row r="560" spans="1:10" ht="45">
       <c r="A560" s="25" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="B560" s="20" t="s">
         <v>1068</v>
       </c>
       <c r="C560" s="16" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="D560" s="18"/>
       <c r="E560" s="25" t="s">
@@ -25091,7 +25116,7 @@
         <v>1070</v>
       </c>
       <c r="C570" s="16" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="D570" s="25"/>
       <c r="E570" s="25" t="s">
@@ -25143,7 +25168,7 @@
         <v>1070</v>
       </c>
       <c r="C572" s="16" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="D572" s="25"/>
       <c r="E572" s="25" t="s">
@@ -25221,7 +25246,7 @@
         <v>1070</v>
       </c>
       <c r="C575" s="16" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="D575" s="25"/>
       <c r="E575" s="25" t="s">
@@ -25429,7 +25454,7 @@
         <v>1071</v>
       </c>
       <c r="C583" s="16" t="s">
-        <v>2330</v>
+        <v>2325</v>
       </c>
       <c r="D583" s="25"/>
       <c r="E583" s="25" t="s">
@@ -25819,7 +25844,7 @@
         <v>1076</v>
       </c>
       <c r="C598" s="16" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="D598" s="25"/>
       <c r="E598" s="25" t="s">
@@ -25975,7 +26000,7 @@
         <v>1076</v>
       </c>
       <c r="C604" s="16" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="D604" s="25"/>
       <c r="E604" s="25" t="s">
@@ -26053,7 +26078,7 @@
         <v>1077</v>
       </c>
       <c r="C607" s="16" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="D607" s="25"/>
       <c r="E607" s="25" t="s">
@@ -26515,13 +26540,13 @@
     </row>
     <row r="625" spans="1:10" ht="45">
       <c r="A625" s="25" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="B625" s="20" t="s">
         <v>1079</v>
       </c>
       <c r="C625" s="16" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="D625" s="18"/>
       <c r="E625" s="25" t="s">
@@ -26541,13 +26566,13 @@
     </row>
     <row r="626" spans="1:10" ht="45">
       <c r="A626" s="25" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="B626" s="20" t="s">
         <v>1079</v>
       </c>
       <c r="C626" s="16" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="D626" s="18"/>
       <c r="E626" s="25" t="s">
@@ -26807,7 +26832,7 @@
         <v>1081</v>
       </c>
       <c r="C636" s="16" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="D636" s="25"/>
       <c r="E636" s="25" t="s">
@@ -26859,7 +26884,7 @@
         <v>1081</v>
       </c>
       <c r="C638" s="16" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D638" s="25"/>
       <c r="E638" s="25" t="s">
@@ -26937,7 +26962,7 @@
         <v>1081</v>
       </c>
       <c r="C641" s="16" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="D641" s="25"/>
       <c r="E641" s="25" t="s">
@@ -27145,7 +27170,7 @@
         <v>1082</v>
       </c>
       <c r="C649" s="16" t="s">
-        <v>2325</v>
+        <v>2320</v>
       </c>
       <c r="D649" s="25"/>
       <c r="E649" s="25" t="s">
@@ -27483,7 +27508,7 @@
         <v>1087</v>
       </c>
       <c r="C662" s="16" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="D662" s="25"/>
       <c r="E662" s="25" t="s">
@@ -27561,7 +27586,7 @@
         <v>1088</v>
       </c>
       <c r="C665" s="16" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="D665" s="25"/>
       <c r="E665" s="25" t="s">
@@ -27743,7 +27768,7 @@
         <v>1088</v>
       </c>
       <c r="C672" s="16" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="D672" s="25"/>
       <c r="E672" s="25" t="s">
@@ -27785,7 +27810,7 @@
         <v>17</v>
       </c>
       <c r="I673" s="16" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
       <c r="J673" s="53"/>
     </row>
@@ -27855,7 +27880,7 @@
       <c r="C676" s="27" t="s">
         <v>1666</v>
       </c>
-      <c r="D676" s="25" t="s">
+      <c r="D676" s="18" t="s">
         <v>1995</v>
       </c>
       <c r="E676" s="25" t="s">
@@ -27881,7 +27906,7 @@
         <v>1089</v>
       </c>
       <c r="C677" s="16" t="s">
-        <v>2334</v>
+        <v>2329</v>
       </c>
       <c r="D677" s="25"/>
       <c r="E677" s="25" t="s">
@@ -27896,7 +27921,9 @@
       <c r="H677" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I677" s="16"/>
+      <c r="I677" s="16" t="s">
+        <v>2027</v>
+      </c>
       <c r="J677" s="53"/>
     </row>
     <row r="678" spans="1:10" ht="45">
@@ -27907,7 +27934,7 @@
         <v>1089</v>
       </c>
       <c r="C678" s="16" t="s">
-        <v>2335</v>
+        <v>2330</v>
       </c>
       <c r="D678" s="25"/>
       <c r="E678" s="25" t="s">
@@ -27923,7 +27950,7 @@
         <v>17</v>
       </c>
       <c r="I678" s="16" t="s">
-        <v>2027</v>
+        <v>2362</v>
       </c>
       <c r="J678" s="53"/>
     </row>
@@ -28085,13 +28112,13 @@
     </row>
     <row r="685" spans="1:10" ht="45">
       <c r="A685" s="25" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="B685" s="20" t="s">
         <v>1089</v>
       </c>
       <c r="C685" s="16" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="D685" s="18"/>
       <c r="E685" s="25" t="s">
@@ -28111,13 +28138,13 @@
     </row>
     <row r="686" spans="1:10" ht="45">
       <c r="A686" s="18" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="B686" s="20" t="s">
         <v>1089</v>
       </c>
       <c r="C686" s="16" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="D686" s="18"/>
       <c r="E686" s="25" t="s">
@@ -28377,7 +28404,7 @@
         <v>1091</v>
       </c>
       <c r="C696" s="16" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="D696" s="25"/>
       <c r="E696" s="25" t="s">
@@ -28429,7 +28456,7 @@
         <v>1091</v>
       </c>
       <c r="C698" s="16" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="D698" s="25"/>
       <c r="E698" s="25" t="s">
@@ -28507,7 +28534,7 @@
         <v>1091</v>
       </c>
       <c r="C701" s="16" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="D701" s="25"/>
       <c r="E701" s="25" t="s">
@@ -28715,7 +28742,7 @@
         <v>1092</v>
       </c>
       <c r="C709" s="16" t="s">
-        <v>2326</v>
+        <v>2321</v>
       </c>
       <c r="D709" s="25"/>
       <c r="E709" s="25" t="s">
@@ -29053,7 +29080,7 @@
         <v>1097</v>
       </c>
       <c r="C722" s="16" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="D722" s="25"/>
       <c r="E722" s="25" t="s">
@@ -29209,7 +29236,7 @@
         <v>1097</v>
       </c>
       <c r="C728" s="16" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D728" s="25"/>
       <c r="E728" s="25" t="s">
@@ -29251,7 +29278,7 @@
         <v>17</v>
       </c>
       <c r="I729" s="16" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="J729" s="53"/>
     </row>
@@ -29481,7 +29508,7 @@
         <v>1098</v>
       </c>
       <c r="C738" s="16" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="D738" s="25"/>
       <c r="E738" s="25" t="s">
@@ -29709,13 +29736,13 @@
     </row>
     <row r="747" spans="1:10" ht="45">
       <c r="A747" s="25" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="B747" s="20" t="s">
         <v>1099</v>
       </c>
       <c r="C747" s="16" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="D747" s="18"/>
       <c r="E747" s="25" t="s">
@@ -29735,13 +29762,13 @@
     </row>
     <row r="748" spans="1:10" ht="45">
       <c r="A748" s="25" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="B748" s="20" t="s">
         <v>1099</v>
       </c>
       <c r="C748" s="16" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="D748" s="18"/>
       <c r="E748" s="25" t="s">
@@ -30001,7 +30028,7 @@
         <v>1101</v>
       </c>
       <c r="C758" s="16" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="D758" s="25"/>
       <c r="E758" s="25" t="s">
@@ -30053,7 +30080,7 @@
         <v>1101</v>
       </c>
       <c r="C760" s="16" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="D760" s="25"/>
       <c r="E760" s="25" t="s">
@@ -30131,7 +30158,7 @@
         <v>1101</v>
       </c>
       <c r="C763" s="16" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
       <c r="D763" s="25"/>
       <c r="E763" s="25" t="s">
@@ -30235,7 +30262,7 @@
         <v>1101</v>
       </c>
       <c r="C767" s="16" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="D767" s="25"/>
       <c r="E767" s="25" t="s">
@@ -30443,7 +30470,7 @@
         <v>1102</v>
       </c>
       <c r="C775" s="16" t="s">
-        <v>2327</v>
+        <v>2322</v>
       </c>
       <c r="D775" s="25"/>
       <c r="E775" s="25" t="s">
@@ -30833,7 +30860,7 @@
         <v>1107</v>
       </c>
       <c r="C790" s="16" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="D790" s="25"/>
       <c r="E790" s="25" t="s">
@@ -30911,7 +30938,7 @@
         <v>1108</v>
       </c>
       <c r="C793" s="16" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="D793" s="25"/>
       <c r="E793" s="25" t="s">
@@ -30989,7 +31016,7 @@
         <v>1108</v>
       </c>
       <c r="C796" s="16" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="D796" s="25"/>
       <c r="E796" s="25" t="s">
@@ -31031,7 +31058,7 @@
         <v>17</v>
       </c>
       <c r="I797" s="16" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="J797" s="53"/>
     </row>
@@ -31287,7 +31314,7 @@
         <v>1109</v>
       </c>
       <c r="C807" s="16" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="D807" s="25"/>
       <c r="E807" s="25" t="s">
@@ -31339,7 +31366,7 @@
         <v>1109</v>
       </c>
       <c r="C809" s="16" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="D809" s="25"/>
       <c r="E809" s="25" t="s">
@@ -31417,7 +31444,7 @@
         <v>1109</v>
       </c>
       <c r="C812" s="16" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="D812" s="25"/>
       <c r="E812" s="25" t="s">
@@ -31757,13 +31784,13 @@
     </row>
     <row r="825" spans="1:10" ht="45">
       <c r="A825" s="18" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="B825" s="20" t="s">
         <v>1110</v>
       </c>
       <c r="C825" s="16" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="D825" s="18"/>
       <c r="E825" s="25" t="s">
@@ -31783,13 +31810,13 @@
     </row>
     <row r="826" spans="1:10" ht="45">
       <c r="A826" s="25" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="B826" s="20" t="s">
         <v>1110</v>
       </c>
       <c r="C826" s="16" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="D826" s="18"/>
       <c r="E826" s="25" t="s">
@@ -32049,7 +32076,7 @@
         <v>1112</v>
       </c>
       <c r="C836" s="16" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="D836" s="25"/>
       <c r="E836" s="25" t="s">
@@ -32101,7 +32128,7 @@
         <v>1112</v>
       </c>
       <c r="C838" s="16" t="s">
-        <v>2211</v>
+        <v>2353</v>
       </c>
       <c r="D838" s="25"/>
       <c r="E838" s="25" t="s">
@@ -32179,7 +32206,7 @@
         <v>1112</v>
       </c>
       <c r="C841" s="16" t="s">
-        <v>2212</v>
+        <v>2352</v>
       </c>
       <c r="D841" s="25"/>
       <c r="E841" s="25" t="s">
@@ -32387,7 +32414,7 @@
         <v>1113</v>
       </c>
       <c r="C849" s="16" t="s">
-        <v>2328</v>
+        <v>2323</v>
       </c>
       <c r="D849" s="25"/>
       <c r="E849" s="25" t="s">
@@ -32725,7 +32752,7 @@
         <v>1118</v>
       </c>
       <c r="C862" s="16" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
       <c r="D862" s="25"/>
       <c r="E862" s="25" t="s">
@@ -32803,7 +32830,7 @@
         <v>1119</v>
       </c>
       <c r="C865" s="16" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="D865" s="25"/>
       <c r="E865" s="25" t="s">
@@ -33031,13 +33058,13 @@
     </row>
     <row r="874" spans="1:10" ht="45">
       <c r="A874" s="18" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
       <c r="B874" s="20" t="s">
         <v>1120</v>
       </c>
       <c r="C874" s="16" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="D874" s="18"/>
       <c r="E874" s="25" t="s">
@@ -33057,13 +33084,13 @@
     </row>
     <row r="875" spans="1:10" ht="45">
       <c r="A875" s="25" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="B875" s="20" t="s">
         <v>1120</v>
       </c>
       <c r="C875" s="16" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
       <c r="D875" s="18"/>
       <c r="E875" s="25" t="s">
@@ -33323,7 +33350,7 @@
         <v>1122</v>
       </c>
       <c r="C885" s="16" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
       <c r="D885" s="25"/>
       <c r="E885" s="25" t="s">
@@ -33375,7 +33402,7 @@
         <v>1122</v>
       </c>
       <c r="C887" s="16" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="D887" s="25"/>
       <c r="E887" s="25" t="s">
@@ -33453,7 +33480,7 @@
         <v>1122</v>
       </c>
       <c r="C890" s="16" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="D890" s="25"/>
       <c r="E890" s="25" t="s">
@@ -33713,7 +33740,7 @@
         <v>1123</v>
       </c>
       <c r="C900" s="16" t="s">
-        <v>2329</v>
+        <v>2324</v>
       </c>
       <c r="D900" s="25"/>
       <c r="E900" s="25" t="s">
@@ -34233,7 +34260,7 @@
         <v>1128</v>
       </c>
       <c r="C920" s="16" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
       <c r="D920" s="25"/>
       <c r="E920" s="25" t="s">
@@ -34311,7 +34338,7 @@
         <v>1129</v>
       </c>
       <c r="C923" s="16" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="D923" s="25"/>
       <c r="E923" s="25" t="s">
@@ -34467,7 +34494,7 @@
         <v>1130</v>
       </c>
       <c r="C929" s="16" t="s">
-        <v>2336</v>
+        <v>2331</v>
       </c>
       <c r="D929" s="25"/>
       <c r="E929" s="25" t="s">
@@ -34493,7 +34520,7 @@
         <v>1130</v>
       </c>
       <c r="C930" s="16" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
       <c r="D930" s="25"/>
       <c r="E930" s="25" t="s">
@@ -34571,7 +34598,7 @@
         <v>1130</v>
       </c>
       <c r="C933" s="16" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="D933" s="25"/>
       <c r="E933" s="25" t="s">
@@ -34623,7 +34650,7 @@
         <v>1130</v>
       </c>
       <c r="C935" s="16" t="s">
-        <v>2331</v>
+        <v>2326</v>
       </c>
       <c r="D935" s="25"/>
       <c r="E935" s="25" t="s">
@@ -34675,7 +34702,7 @@
         <v>1130</v>
       </c>
       <c r="C937" s="16" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="D937" s="25"/>
       <c r="E937" s="25" t="s">
@@ -34779,7 +34806,7 @@
         <v>1130</v>
       </c>
       <c r="C941" s="16" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
       <c r="D941" s="25"/>
       <c r="E941" s="25" t="s">
@@ -34857,7 +34884,7 @@
         <v>1131</v>
       </c>
       <c r="C944" s="16" t="s">
-        <v>2226</v>
+        <v>2222</v>
       </c>
       <c r="D944" s="25"/>
       <c r="E944" s="25" t="s">
@@ -35065,7 +35092,7 @@
         <v>1132</v>
       </c>
       <c r="C952" s="16" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="D952" s="25"/>
       <c r="E952" s="25" t="s">
@@ -35169,7 +35196,7 @@
         <v>1132</v>
       </c>
       <c r="C956" s="16" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
       <c r="D956" s="25"/>
       <c r="E956" s="25" t="s">
@@ -35195,7 +35222,7 @@
         <v>1133</v>
       </c>
       <c r="C957" s="16" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="D957" s="25"/>
       <c r="E957" s="25" t="s">
@@ -35299,7 +35326,7 @@
         <v>1133</v>
       </c>
       <c r="C961" s="16" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
       <c r="D961" s="25"/>
       <c r="E961" s="25" t="s">
@@ -35377,7 +35404,7 @@
         <v>1134</v>
       </c>
       <c r="C964" s="16" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
       <c r="D964" s="25"/>
       <c r="E964" s="25" t="s">
@@ -35455,7 +35482,7 @@
         <v>1134</v>
       </c>
       <c r="C967" s="16" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="D967" s="25"/>
       <c r="E967" s="25" t="s">
@@ -35507,7 +35534,7 @@
         <v>1134</v>
       </c>
       <c r="C969" s="16" t="s">
-        <v>2332</v>
+        <v>2327</v>
       </c>
       <c r="D969" s="25"/>
       <c r="E969" s="25" t="s">
@@ -35559,7 +35586,7 @@
         <v>1134</v>
       </c>
       <c r="C971" s="16" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
       <c r="D971" s="25"/>
       <c r="E971" s="25" t="s">
@@ -35663,7 +35690,7 @@
         <v>1134</v>
       </c>
       <c r="C975" s="16" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
       <c r="D975" s="25"/>
       <c r="E975" s="25" t="s">
@@ -35761,16 +35788,16 @@
     </row>
     <row r="979" spans="1:10" ht="45">
       <c r="A979" s="18" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
       <c r="B979" s="26" t="s">
         <v>1135</v>
       </c>
       <c r="C979" s="16" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="D979" s="18" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="E979" s="25" t="s">
         <v>22</v>
@@ -35791,16 +35818,16 @@
     </row>
     <row r="980" spans="1:10" ht="45">
       <c r="A980" s="18" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
       <c r="B980" s="26" t="s">
         <v>1135</v>
       </c>
       <c r="C980" s="16" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
       <c r="D980" s="18" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="E980" s="25" t="s">
         <v>22</v>
@@ -35821,16 +35848,16 @@
     </row>
     <row r="981" spans="1:10" ht="45">
       <c r="A981" s="18" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="B981" s="26" t="s">
         <v>1135</v>
       </c>
       <c r="C981" s="16" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="D981" s="18" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
       <c r="E981" s="25" t="s">
         <v>22</v>
@@ -35851,16 +35878,16 @@
     </row>
     <row r="982" spans="1:10" ht="45">
       <c r="A982" s="18" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
       <c r="B982" s="26" t="s">
         <v>1135</v>
       </c>
       <c r="C982" s="16" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="D982" s="18" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="E982" s="25" t="s">
         <v>22</v>
@@ -35881,16 +35908,16 @@
     </row>
     <row r="983" spans="1:10" ht="45">
       <c r="A983" s="18" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="B983" s="20" t="s">
         <v>1135</v>
       </c>
       <c r="C983" s="16" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
       <c r="D983" s="18" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="E983" s="25" t="s">
         <v>22</v>
@@ -35941,16 +35968,16 @@
     </row>
     <row r="985" spans="1:10" ht="90">
       <c r="A985" s="18" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B985" s="20" t="s">
         <v>1135</v>
       </c>
       <c r="C985" s="16" t="s">
-        <v>2253</v>
+        <v>2249</v>
       </c>
       <c r="D985" s="18" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
       <c r="E985" s="18" t="s">
         <v>22</v>
@@ -35969,16 +35996,16 @@
     </row>
     <row r="986" spans="1:10" ht="75">
       <c r="A986" s="18" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B986" s="20" t="s">
         <v>1135</v>
       </c>
       <c r="C986" s="16" t="s">
-        <v>2254</v>
+        <v>2250</v>
       </c>
       <c r="D986" s="18" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
       <c r="E986" s="18" t="s">
         <v>22</v>
@@ -36003,7 +36030,7 @@
         <v>1135</v>
       </c>
       <c r="C987" s="16" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D987" s="25" t="s">
         <v>2007</v>
@@ -36059,7 +36086,7 @@
         <v>1135</v>
       </c>
       <c r="C989" s="16" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D989" s="25" t="s">
         <v>2008</v>
@@ -36109,16 +36136,16 @@
     </row>
     <row r="991" spans="1:10" ht="45">
       <c r="A991" s="18" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B991" s="20" t="s">
         <v>1135</v>
       </c>
       <c r="C991" s="16" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D991" s="18" t="s">
         <v>2083</v>
-      </c>
-      <c r="D991" s="18" t="s">
-        <v>2084</v>
       </c>
       <c r="E991" s="18" t="s">
         <v>22</v>
@@ -36137,16 +36164,16 @@
     </row>
     <row r="992" spans="1:10" ht="30">
       <c r="A992" s="18" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B992" s="20" t="s">
         <v>1135</v>
       </c>
       <c r="C992" s="16" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="D992" s="18" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="E992" s="18" t="s">
         <v>22</v>
@@ -36165,16 +36192,16 @@
     </row>
     <row r="993" spans="1:10" ht="60">
       <c r="A993" s="18" t="s">
-        <v>2337</v>
-      </c>
-      <c r="B993" s="76">
+        <v>2332</v>
+      </c>
+      <c r="B993" s="56">
         <v>8</v>
       </c>
       <c r="C993" s="16" t="s">
-        <v>2339</v>
+        <v>2334</v>
       </c>
       <c r="D993" s="18" t="s">
-        <v>2341</v>
+        <v>2336</v>
       </c>
       <c r="E993" s="53" t="s">
         <v>22</v>
@@ -36193,16 +36220,16 @@
     </row>
     <row r="994" spans="1:10" ht="60">
       <c r="A994" s="18" t="s">
-        <v>2338</v>
-      </c>
-      <c r="B994" s="76">
+        <v>2333</v>
+      </c>
+      <c r="B994" s="56">
         <v>8</v>
       </c>
       <c r="C994" s="16" t="s">
-        <v>2340</v>
+        <v>2335</v>
       </c>
       <c r="D994" s="18" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="E994" s="53" t="s">
         <v>22</v>
@@ -36221,16 +36248,16 @@
     </row>
     <row r="995" spans="1:10" ht="90">
       <c r="A995" s="18" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B995" s="20" t="s">
         <v>1135</v>
       </c>
       <c r="C995" s="16" t="s">
-        <v>2343</v>
+        <v>2338</v>
       </c>
       <c r="D995" s="18" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E995" s="18" t="s">
         <v>22</v>
@@ -36251,16 +36278,16 @@
     </row>
     <row r="996" spans="1:10" ht="60">
       <c r="A996" s="18" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B996" s="20" t="s">
         <v>1135</v>
       </c>
       <c r="C996" s="16" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="D996" s="18" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E996" s="18" t="s">
         <v>22</v>
@@ -36277,18 +36304,18 @@
       <c r="I996" s="16"/>
       <c r="J996" s="53"/>
     </row>
-    <row r="997" spans="1:10" ht="60">
+    <row r="997" spans="1:10" ht="75">
       <c r="A997" s="18" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B997" s="20" t="s">
         <v>1135</v>
       </c>
       <c r="C997" s="16" t="s">
-        <v>2344</v>
+        <v>2355</v>
       </c>
       <c r="D997" s="18" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E997" s="18" t="s">
         <v>22</v>
@@ -36309,16 +36336,16 @@
     </row>
     <row r="998" spans="1:10" ht="45">
       <c r="A998" s="18" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B998" s="20" t="s">
         <v>1135</v>
       </c>
       <c r="C998" s="16" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="D998" s="18" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E998" s="18" t="s">
         <v>22</v>
@@ -36345,7 +36372,7 @@
         <v>1135</v>
       </c>
       <c r="C999" s="16" t="s">
-        <v>2345</v>
+        <v>2354</v>
       </c>
       <c r="D999" s="25" t="s">
         <v>2009</v>
@@ -36403,7 +36430,7 @@
         <v>1135</v>
       </c>
       <c r="C1001" s="16" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="D1001" s="25" t="s">
         <v>2010</v>
@@ -36431,7 +36458,7 @@
         <v>1135</v>
       </c>
       <c r="C1002" s="16" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="D1002" s="25" t="s">
         <v>2010</v>
@@ -36459,10 +36486,10 @@
         <v>1135</v>
       </c>
       <c r="C1003" s="16" t="s">
-        <v>2346</v>
-      </c>
-      <c r="D1003" s="25" t="s">
-        <v>2011</v>
+        <v>2358</v>
+      </c>
+      <c r="D1003" s="18" t="s">
+        <v>2010</v>
       </c>
       <c r="E1003" s="25" t="s">
         <v>22</v>
@@ -36487,10 +36514,10 @@
         <v>1135</v>
       </c>
       <c r="C1004" s="16" t="s">
-        <v>2039</v>
-      </c>
-      <c r="D1004" s="25" t="s">
-        <v>2011</v>
+        <v>2360</v>
+      </c>
+      <c r="D1004" s="18" t="s">
+        <v>2010</v>
       </c>
       <c r="E1004" s="25" t="s">
         <v>22</v>
@@ -36509,74 +36536,80 @@
       </c>
       <c r="J1004" s="53"/>
     </row>
-    <row r="1005" spans="1:10" ht="360">
-      <c r="A1005" s="25" t="s">
+    <row r="1005" spans="1:10" ht="45">
+      <c r="A1005" s="18" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B1005" s="56">
+        <v>8</v>
+      </c>
+      <c r="C1005" s="16" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D1005" s="18" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E1005" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1005" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1005" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1005" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1005" s="55"/>
+      <c r="J1005" s="53"/>
+    </row>
+    <row r="1006" spans="1:10" ht="30">
+      <c r="A1006" s="18" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B1006" s="56">
+        <v>8</v>
+      </c>
+      <c r="C1006" s="16" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D1006" s="18" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E1006" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1006" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1006" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1006" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1006" s="55" t="s">
+        <v>2029</v>
+      </c>
+      <c r="J1006" s="53"/>
+    </row>
+    <row r="1007" spans="1:10" ht="360">
+      <c r="A1007" s="25" t="s">
         <v>1008</v>
       </c>
-      <c r="B1005" s="20" t="s">
-        <v>2347</v>
-      </c>
-      <c r="C1005" s="16" t="s">
+      <c r="B1007" s="20" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C1007" s="16" t="s">
         <v>1951</v>
-      </c>
-      <c r="D1005" s="25"/>
-      <c r="E1005" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1005" s="25" t="s">
-        <v>2013</v>
-      </c>
-      <c r="G1005" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1005" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1005" s="27"/>
-      <c r="J1005" s="53"/>
-    </row>
-    <row r="1006" spans="1:10" ht="180">
-      <c r="A1006" s="25" t="s">
-        <v>982</v>
-      </c>
-      <c r="B1006" s="20" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C1006" s="16" t="s">
-        <v>1928</v>
-      </c>
-      <c r="D1006" s="25"/>
-      <c r="E1006" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1006" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1006" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1006" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1006" s="27"/>
-      <c r="J1006" s="53"/>
-    </row>
-    <row r="1007" spans="1:10" ht="409.5">
-      <c r="A1007" s="25" t="s">
-        <v>983</v>
-      </c>
-      <c r="B1007" s="20" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C1007" s="28" t="s">
-        <v>2040</v>
       </c>
       <c r="D1007" s="25"/>
       <c r="E1007" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1007" s="25" t="s">
-        <v>6</v>
+        <v>2013</v>
       </c>
       <c r="G1007" s="25" t="s">
         <v>15</v>
@@ -36587,41 +36620,41 @@
       <c r="I1007" s="27"/>
       <c r="J1007" s="53"/>
     </row>
-    <row r="1008" spans="1:10" ht="30">
+    <row r="1008" spans="1:10" ht="180">
       <c r="A1008" s="25" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B1008" s="20" t="s">
-        <v>2240</v>
+        <v>1032</v>
       </c>
       <c r="C1008" s="16" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D1008" s="25"/>
       <c r="E1008" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1008" s="25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1008" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H1008" s="25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I1008" s="27"/>
       <c r="J1008" s="53"/>
     </row>
-    <row r="1009" spans="1:10" ht="135">
+    <row r="1009" spans="1:10" ht="409.5">
       <c r="A1009" s="25" t="s">
-        <v>985</v>
-      </c>
-      <c r="B1009" s="26" t="s">
-        <v>2240</v>
-      </c>
-      <c r="C1009" s="27" t="s">
-        <v>1930</v>
+        <v>983</v>
+      </c>
+      <c r="B1009" s="20" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C1009" s="28" t="s">
+        <v>2039</v>
       </c>
       <c r="D1009" s="25"/>
       <c r="E1009" s="25" t="s">
@@ -36634,20 +36667,20 @@
         <v>15</v>
       </c>
       <c r="H1009" s="25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I1009" s="27"/>
       <c r="J1009" s="53"/>
     </row>
     <row r="1010" spans="1:10" ht="30">
       <c r="A1010" s="25" t="s">
-        <v>986</v>
-      </c>
-      <c r="B1010" s="26" t="s">
-        <v>2240</v>
+        <v>984</v>
+      </c>
+      <c r="B1010" s="20" t="s">
+        <v>2236</v>
       </c>
       <c r="C1010" s="16" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="D1010" s="25"/>
       <c r="E1010" s="25" t="s">
@@ -36660,72 +36693,72 @@
         <v>15</v>
       </c>
       <c r="H1010" s="25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I1010" s="27"/>
       <c r="J1010" s="53"/>
     </row>
-    <row r="1011" spans="1:10" ht="390">
+    <row r="1011" spans="1:10" ht="135">
       <c r="A1011" s="25" t="s">
-        <v>987</v>
-      </c>
-      <c r="B1011" s="20" t="s">
-        <v>2241</v>
-      </c>
-      <c r="C1011" s="16" t="s">
-        <v>1932</v>
+        <v>985</v>
+      </c>
+      <c r="B1011" s="26" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C1011" s="27" t="s">
+        <v>1930</v>
       </c>
       <c r="D1011" s="25"/>
       <c r="E1011" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1011" s="25" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1011" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H1011" s="25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I1011" s="27"/>
       <c r="J1011" s="53"/>
     </row>
     <row r="1012" spans="1:10" ht="30">
       <c r="A1012" s="25" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B1012" s="26" t="s">
-        <v>2241</v>
-      </c>
-      <c r="C1012" s="27" t="s">
-        <v>1933</v>
+        <v>2236</v>
+      </c>
+      <c r="C1012" s="16" t="s">
+        <v>1931</v>
       </c>
       <c r="D1012" s="25"/>
       <c r="E1012" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1012" s="25" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1012" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H1012" s="25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I1012" s="27"/>
       <c r="J1012" s="53"/>
     </row>
-    <row r="1013" spans="1:10" ht="30">
+    <row r="1013" spans="1:10" ht="390">
       <c r="A1013" s="25" t="s">
-        <v>989</v>
-      </c>
-      <c r="B1013" s="26" t="s">
-        <v>2241</v>
-      </c>
-      <c r="C1013" s="27" t="s">
-        <v>1934</v>
+        <v>987</v>
+      </c>
+      <c r="B1013" s="20" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C1013" s="16" t="s">
+        <v>1932</v>
       </c>
       <c r="D1013" s="25"/>
       <c r="E1013" s="25" t="s">
@@ -36738,20 +36771,20 @@
         <v>15</v>
       </c>
       <c r="H1013" s="25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I1013" s="27"/>
       <c r="J1013" s="53"/>
     </row>
     <row r="1014" spans="1:10" ht="30">
       <c r="A1014" s="25" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B1014" s="26" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="C1014" s="27" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="D1014" s="25"/>
       <c r="E1014" s="25" t="s">
@@ -36769,15 +36802,15 @@
       <c r="I1014" s="27"/>
       <c r="J1014" s="53"/>
     </row>
-    <row r="1015" spans="1:10" ht="60">
+    <row r="1015" spans="1:10" ht="30">
       <c r="A1015" s="25" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B1015" s="26" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="C1015" s="27" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="D1015" s="25"/>
       <c r="E1015" s="25" t="s">
@@ -36792,20 +36825,18 @@
       <c r="H1015" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1015" s="27" t="s">
-        <v>2033</v>
-      </c>
+      <c r="I1015" s="27"/>
       <c r="J1015" s="53"/>
     </row>
-    <row r="1016" spans="1:10" ht="60">
+    <row r="1016" spans="1:10" ht="30">
       <c r="A1016" s="25" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B1016" s="26" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="C1016" s="27" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="D1016" s="25"/>
       <c r="E1016" s="25" t="s">
@@ -36820,20 +36851,18 @@
       <c r="H1016" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1016" s="27" t="s">
-        <v>2034</v>
-      </c>
+      <c r="I1016" s="27"/>
       <c r="J1016" s="53"/>
     </row>
     <row r="1017" spans="1:10" ht="60">
-      <c r="A1017" s="18" t="s">
-        <v>993</v>
+      <c r="A1017" s="25" t="s">
+        <v>991</v>
       </c>
       <c r="B1017" s="26" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="C1017" s="27" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="D1017" s="25"/>
       <c r="E1017" s="25" t="s">
@@ -36848,20 +36877,20 @@
       <c r="H1017" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1017" s="16" t="s">
-        <v>2295</v>
+      <c r="I1017" s="27" t="s">
+        <v>2033</v>
       </c>
       <c r="J1017" s="53"/>
     </row>
-    <row r="1018" spans="1:10" ht="30">
+    <row r="1018" spans="1:10" ht="60">
       <c r="A1018" s="25" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B1018" s="26" t="s">
-        <v>2241</v>
-      </c>
-      <c r="C1018" s="16" t="s">
-        <v>2348</v>
+        <v>2237</v>
+      </c>
+      <c r="C1018" s="27" t="s">
+        <v>1937</v>
       </c>
       <c r="D1018" s="25"/>
       <c r="E1018" s="25" t="s">
@@ -36876,18 +36905,20 @@
       <c r="H1018" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1018" s="27"/>
+      <c r="I1018" s="27" t="s">
+        <v>2034</v>
+      </c>
       <c r="J1018" s="53"/>
     </row>
-    <row r="1019" spans="1:10" ht="255">
-      <c r="A1019" s="25" t="s">
-        <v>995</v>
-      </c>
-      <c r="B1019" s="20" t="s">
-        <v>2242</v>
-      </c>
-      <c r="C1019" s="16" t="s">
-        <v>1939</v>
+    <row r="1019" spans="1:10" ht="60">
+      <c r="A1019" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="B1019" s="26" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C1019" s="27" t="s">
+        <v>1938</v>
       </c>
       <c r="D1019" s="25"/>
       <c r="E1019" s="25" t="s">
@@ -36900,20 +36931,22 @@
         <v>15</v>
       </c>
       <c r="H1019" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1019" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="I1019" s="16" t="s">
+        <v>2291</v>
+      </c>
       <c r="J1019" s="53"/>
     </row>
-    <row r="1020" spans="1:10" ht="60">
+    <row r="1020" spans="1:10" ht="30">
       <c r="A1020" s="25" t="s">
-        <v>996</v>
-      </c>
-      <c r="B1020" s="20" t="s">
-        <v>2243</v>
+        <v>994</v>
+      </c>
+      <c r="B1020" s="26" t="s">
+        <v>2237</v>
       </c>
       <c r="C1020" s="16" t="s">
-        <v>1940</v>
+        <v>2340</v>
       </c>
       <c r="D1020" s="25"/>
       <c r="E1020" s="25" t="s">
@@ -36928,20 +36961,18 @@
       <c r="H1020" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1020" s="27" t="s">
-        <v>2035</v>
-      </c>
+      <c r="I1020" s="27"/>
       <c r="J1020" s="53"/>
     </row>
-    <row r="1021" spans="1:10" ht="45">
+    <row r="1021" spans="1:10" ht="255">
       <c r="A1021" s="25" t="s">
-        <v>997</v>
-      </c>
-      <c r="B1021" s="26" t="s">
-        <v>2243</v>
-      </c>
-      <c r="C1021" s="27" t="s">
-        <v>1941</v>
+        <v>995</v>
+      </c>
+      <c r="B1021" s="20" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C1021" s="16" t="s">
+        <v>1939</v>
       </c>
       <c r="D1021" s="25"/>
       <c r="E1021" s="25" t="s">
@@ -36954,22 +36985,20 @@
         <v>15</v>
       </c>
       <c r="H1021" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1021" s="27" t="s">
-        <v>2036</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I1021" s="27"/>
       <c r="J1021" s="53"/>
     </row>
-    <row r="1022" spans="1:10" ht="45">
+    <row r="1022" spans="1:10" ht="60">
       <c r="A1022" s="25" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B1022" s="20" t="s">
-        <v>2244</v>
+        <v>2239</v>
       </c>
       <c r="C1022" s="16" t="s">
-        <v>2349</v>
+        <v>1940</v>
       </c>
       <c r="D1022" s="25"/>
       <c r="E1022" s="25" t="s">
@@ -36985,71 +37014,75 @@
         <v>17</v>
       </c>
       <c r="I1022" s="27" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="J1022" s="53"/>
     </row>
-    <row r="1023" spans="1:10" ht="409.5">
+    <row r="1023" spans="1:10" ht="45">
       <c r="A1023" s="25" t="s">
-        <v>999</v>
-      </c>
-      <c r="B1023" s="20" t="s">
-        <v>2246</v>
-      </c>
-      <c r="C1023" s="16" t="s">
-        <v>1942</v>
+        <v>997</v>
+      </c>
+      <c r="B1023" s="26" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C1023" s="27" t="s">
+        <v>1941</v>
       </c>
       <c r="D1023" s="25"/>
       <c r="E1023" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1023" s="25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1023" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H1023" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1023" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="I1023" s="27" t="s">
+        <v>2036</v>
+      </c>
       <c r="J1023" s="53"/>
     </row>
-    <row r="1024" spans="1:10" ht="60">
+    <row r="1024" spans="1:10" ht="45">
       <c r="A1024" s="25" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B1024" s="20" t="s">
-        <v>2246</v>
-      </c>
-      <c r="C1024" s="27" t="s">
-        <v>1943</v>
+        <v>2240</v>
+      </c>
+      <c r="C1024" s="16" t="s">
+        <v>2341</v>
       </c>
       <c r="D1024" s="25"/>
       <c r="E1024" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1024" s="25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1024" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H1024" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1024" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="I1024" s="27" t="s">
+        <v>2037</v>
+      </c>
       <c r="J1024" s="53"/>
     </row>
-    <row r="1025" spans="1:10" ht="30">
-      <c r="A1025" s="18" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B1025" s="26" t="s">
-        <v>2246</v>
-      </c>
-      <c r="C1025" s="27" t="s">
-        <v>1944</v>
+    <row r="1025" spans="1:10" ht="409.5">
+      <c r="A1025" s="25" t="s">
+        <v>999</v>
+      </c>
+      <c r="B1025" s="20" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C1025" s="16" t="s">
+        <v>1942</v>
       </c>
       <c r="D1025" s="25"/>
       <c r="E1025" s="25" t="s">
@@ -37067,22 +37100,22 @@
       <c r="I1025" s="27"/>
       <c r="J1025" s="53"/>
     </row>
-    <row r="1026" spans="1:10" ht="409.5">
+    <row r="1026" spans="1:10" ht="60">
       <c r="A1026" s="25" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B1026" s="20" t="s">
-        <v>2245</v>
-      </c>
-      <c r="C1026" s="16" t="s">
-        <v>1945</v>
+        <v>2242</v>
+      </c>
+      <c r="C1026" s="27" t="s">
+        <v>1943</v>
       </c>
       <c r="D1026" s="25"/>
       <c r="E1026" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1026" s="25" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1026" s="25" t="s">
         <v>15</v>
@@ -37094,40 +37127,40 @@
       <c r="J1026" s="53"/>
     </row>
     <row r="1027" spans="1:10" ht="30">
-      <c r="A1027" s="25" t="s">
-        <v>1003</v>
+      <c r="A1027" s="18" t="s">
+        <v>1001</v>
       </c>
       <c r="B1027" s="26" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="C1027" s="27" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="D1027" s="25"/>
       <c r="E1027" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1027" s="25" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1027" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H1027" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1027" s="27"/>
       <c r="J1027" s="53"/>
     </row>
-    <row r="1028" spans="1:10" ht="30">
+    <row r="1028" spans="1:10" ht="409.5">
       <c r="A1028" s="25" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B1028" s="26" t="s">
-        <v>2245</v>
-      </c>
-      <c r="C1028" s="27" t="s">
-        <v>1947</v>
+        <v>1002</v>
+      </c>
+      <c r="B1028" s="20" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C1028" s="16" t="s">
+        <v>1945</v>
       </c>
       <c r="D1028" s="25"/>
       <c r="E1028" s="25" t="s">
@@ -37140,20 +37173,20 @@
         <v>15</v>
       </c>
       <c r="H1028" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1028" s="27"/>
       <c r="J1028" s="53"/>
     </row>
     <row r="1029" spans="1:10" ht="30">
       <c r="A1029" s="25" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B1029" s="26" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
       <c r="C1029" s="27" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="D1029" s="25"/>
       <c r="E1029" s="25" t="s">
@@ -37171,15 +37204,15 @@
       <c r="I1029" s="27"/>
       <c r="J1029" s="53"/>
     </row>
-    <row r="1030" spans="1:10" ht="45">
+    <row r="1030" spans="1:10" ht="30">
       <c r="A1030" s="25" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B1030" s="26" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
       <c r="C1030" s="27" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="D1030" s="25"/>
       <c r="E1030" s="25" t="s">
@@ -37199,13 +37232,13 @@
     </row>
     <row r="1031" spans="1:10" ht="30">
       <c r="A1031" s="25" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B1031" s="26" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
       <c r="C1031" s="27" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="D1031" s="25"/>
       <c r="E1031" s="25" t="s">
@@ -37218,20 +37251,20 @@
         <v>15</v>
       </c>
       <c r="H1031" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1031" s="27"/>
       <c r="J1031" s="53"/>
     </row>
     <row r="1032" spans="1:10" ht="45">
-      <c r="A1032" s="18" t="s">
-        <v>972</v>
-      </c>
-      <c r="B1032" s="20" t="s">
-        <v>2237</v>
-      </c>
-      <c r="C1032" s="16" t="s">
-        <v>1917</v>
+      <c r="A1032" s="25" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B1032" s="26" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C1032" s="27" t="s">
+        <v>1949</v>
       </c>
       <c r="D1032" s="25"/>
       <c r="E1032" s="25" t="s">
@@ -37244,22 +37277,20 @@
         <v>15</v>
       </c>
       <c r="H1032" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1032" s="16" t="s">
-        <v>2284</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I1032" s="27"/>
       <c r="J1032" s="53"/>
     </row>
-    <row r="1033" spans="1:10" ht="45">
-      <c r="A1033" s="18" t="s">
-        <v>973</v>
+    <row r="1033" spans="1:10" ht="30">
+      <c r="A1033" s="25" t="s">
+        <v>1007</v>
       </c>
       <c r="B1033" s="26" t="s">
-        <v>2237</v>
+        <v>2241</v>
       </c>
       <c r="C1033" s="27" t="s">
-        <v>1918</v>
+        <v>1950</v>
       </c>
       <c r="D1033" s="25"/>
       <c r="E1033" s="25" t="s">
@@ -37272,22 +37303,20 @@
         <v>15</v>
       </c>
       <c r="H1033" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1033" s="16" t="s">
-        <v>2285</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1033" s="27"/>
       <c r="J1033" s="53"/>
     </row>
     <row r="1034" spans="1:10" ht="45">
-      <c r="A1034" s="25" t="s">
-        <v>974</v>
-      </c>
-      <c r="B1034" s="26" t="s">
-        <v>2237</v>
-      </c>
-      <c r="C1034" s="27" t="s">
-        <v>1919</v>
+      <c r="A1034" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="B1034" s="20" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C1034" s="16" t="s">
+        <v>1917</v>
       </c>
       <c r="D1034" s="25"/>
       <c r="E1034" s="25" t="s">
@@ -37302,20 +37331,20 @@
       <c r="H1034" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1034" s="27" t="s">
-        <v>2030</v>
+      <c r="I1034" s="16" t="s">
+        <v>2280</v>
       </c>
       <c r="J1034" s="53"/>
     </row>
-    <row r="1035" spans="1:10" ht="60">
-      <c r="A1035" s="25" t="s">
-        <v>975</v>
-      </c>
-      <c r="B1035" s="20" t="s">
-        <v>2238</v>
-      </c>
-      <c r="C1035" s="16" t="s">
-        <v>1920</v>
+    <row r="1035" spans="1:10" ht="45">
+      <c r="A1035" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="B1035" s="26" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C1035" s="27" t="s">
+        <v>1918</v>
       </c>
       <c r="D1035" s="25"/>
       <c r="E1035" s="25" t="s">
@@ -37330,20 +37359,20 @@
       <c r="H1035" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1035" s="27" t="s">
-        <v>2031</v>
+      <c r="I1035" s="16" t="s">
+        <v>2281</v>
       </c>
       <c r="J1035" s="53"/>
     </row>
-    <row r="1036" spans="1:10" ht="60">
+    <row r="1036" spans="1:10" ht="45">
       <c r="A1036" s="25" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B1036" s="26" t="s">
-        <v>2238</v>
+        <v>2233</v>
       </c>
       <c r="C1036" s="27" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="D1036" s="25"/>
       <c r="E1036" s="25" t="s">
@@ -37359,19 +37388,19 @@
         <v>17</v>
       </c>
       <c r="I1036" s="27" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="J1036" s="53"/>
     </row>
     <row r="1037" spans="1:10" ht="60">
-      <c r="A1037" s="18" t="s">
-        <v>977</v>
-      </c>
-      <c r="B1037" s="26" t="s">
-        <v>2238</v>
-      </c>
-      <c r="C1037" s="27" t="s">
-        <v>1922</v>
+      <c r="A1037" s="25" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1037" s="20" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C1037" s="16" t="s">
+        <v>1920</v>
       </c>
       <c r="D1037" s="25"/>
       <c r="E1037" s="25" t="s">
@@ -37386,48 +37415,48 @@
       <c r="H1037" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1037" s="16" t="s">
-        <v>2286</v>
+      <c r="I1037" s="27" t="s">
+        <v>2031</v>
       </c>
       <c r="J1037" s="53"/>
     </row>
-    <row r="1038" spans="1:10" ht="45">
-      <c r="A1038" s="46" t="s">
-        <v>2291</v>
-      </c>
-      <c r="B1038" s="47" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C1038" s="48" t="s">
-        <v>2350</v>
-      </c>
-      <c r="D1038" s="18"/>
-      <c r="E1038" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1038" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1038" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1038" s="18" t="s">
+    <row r="1038" spans="1:10" ht="60">
+      <c r="A1038" s="25" t="s">
+        <v>976</v>
+      </c>
+      <c r="B1038" s="26" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C1038" s="27" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D1038" s="25"/>
+      <c r="E1038" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1038" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1038" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1038" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1038" s="16" t="s">
-        <v>2290</v>
+      <c r="I1038" s="27" t="s">
+        <v>2032</v>
       </c>
       <c r="J1038" s="53"/>
     </row>
-    <row r="1039" spans="1:10" ht="409.5">
+    <row r="1039" spans="1:10" ht="60">
       <c r="A1039" s="18" t="s">
-        <v>2292</v>
-      </c>
-      <c r="B1039" s="20" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C1039" s="16" t="s">
-        <v>1923</v>
+        <v>977</v>
+      </c>
+      <c r="B1039" s="26" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C1039" s="27" t="s">
+        <v>1922</v>
       </c>
       <c r="D1039" s="25"/>
       <c r="E1039" s="25" t="s">
@@ -37440,72 +37469,76 @@
         <v>15</v>
       </c>
       <c r="H1039" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1039" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="I1039" s="16" t="s">
+        <v>2282</v>
+      </c>
       <c r="J1039" s="53"/>
     </row>
     <row r="1040" spans="1:10" ht="45">
-      <c r="A1040" s="18" t="s">
-        <v>978</v>
-      </c>
-      <c r="B1040" s="20" t="s">
-        <v>2239</v>
-      </c>
-      <c r="C1040" s="16" t="s">
-        <v>1924</v>
-      </c>
-      <c r="D1040" s="25"/>
-      <c r="E1040" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1040" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1040" s="25" t="s">
+      <c r="A1040" s="46" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B1040" s="47" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C1040" s="48" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D1040" s="18"/>
+      <c r="E1040" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1040" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1040" s="18" t="s">
         <v>15</v>
       </c>
       <c r="H1040" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1040" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="I1040" s="16" t="s">
+        <v>2286</v>
+      </c>
       <c r="J1040" s="53"/>
     </row>
-    <row r="1041" spans="1:10" ht="30">
-      <c r="A1041" s="25" t="s">
-        <v>979</v>
-      </c>
-      <c r="B1041" s="26" t="s">
-        <v>2239</v>
-      </c>
-      <c r="C1041" s="27" t="s">
-        <v>1925</v>
+    <row r="1041" spans="1:10" ht="409.5">
+      <c r="A1041" s="18" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B1041" s="20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C1041" s="16" t="s">
+        <v>1923</v>
       </c>
       <c r="D1041" s="25"/>
       <c r="E1041" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1041" s="25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1041" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H1041" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1041" s="27"/>
       <c r="J1041" s="53"/>
     </row>
     <row r="1042" spans="1:10" ht="45">
-      <c r="A1042" s="25" t="s">
-        <v>980</v>
-      </c>
-      <c r="B1042" s="26" t="s">
-        <v>2239</v>
+      <c r="A1042" s="18" t="s">
+        <v>978</v>
+      </c>
+      <c r="B1042" s="20" t="s">
+        <v>2235</v>
       </c>
       <c r="C1042" s="16" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="D1042" s="25"/>
       <c r="E1042" s="25" t="s">
@@ -37517,21 +37550,21 @@
       <c r="G1042" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H1042" s="25" t="s">
-        <v>20</v>
+      <c r="H1042" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I1042" s="27"/>
       <c r="J1042" s="53"/>
     </row>
-    <row r="1043" spans="1:10" ht="45">
+    <row r="1043" spans="1:10" ht="30">
       <c r="A1043" s="25" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B1043" s="26" t="s">
-        <v>2239</v>
-      </c>
-      <c r="C1043" s="16" t="s">
-        <v>1927</v>
+        <v>2235</v>
+      </c>
+      <c r="C1043" s="27" t="s">
+        <v>1925</v>
       </c>
       <c r="D1043" s="25"/>
       <c r="E1043" s="25" t="s">
@@ -37551,19 +37584,17 @@
     </row>
     <row r="1044" spans="1:10" ht="45">
       <c r="A1044" s="25" t="s">
-        <v>1009</v>
+        <v>980</v>
       </c>
       <c r="B1044" s="26" t="s">
-        <v>1135</v>
+        <v>2235</v>
       </c>
       <c r="C1044" s="16" t="s">
-        <v>2351</v>
-      </c>
-      <c r="D1044" s="25" t="s">
-        <v>2012</v>
-      </c>
+        <v>1926</v>
+      </c>
+      <c r="D1044" s="25"/>
       <c r="E1044" s="25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1044" s="25" t="s">
         <v>6</v>
@@ -37572,26 +37603,24 @@
         <v>15</v>
       </c>
       <c r="H1044" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1044" s="27"/>
       <c r="J1044" s="53"/>
     </row>
     <row r="1045" spans="1:10" ht="45">
       <c r="A1045" s="25" t="s">
-        <v>1010</v>
+        <v>981</v>
       </c>
       <c r="B1045" s="26" t="s">
-        <v>1135</v>
+        <v>2235</v>
       </c>
       <c r="C1045" s="16" t="s">
-        <v>2352</v>
-      </c>
-      <c r="D1045" s="25" t="s">
-        <v>2012</v>
-      </c>
+        <v>1927</v>
+      </c>
+      <c r="D1045" s="25"/>
       <c r="E1045" s="25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1045" s="25" t="s">
         <v>6</v>
@@ -37600,20 +37629,20 @@
         <v>15</v>
       </c>
       <c r="H1045" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1045" s="27"/>
       <c r="J1045" s="53"/>
     </row>
     <row r="1046" spans="1:10" ht="45">
-      <c r="A1046" s="18" t="s">
-        <v>1011</v>
+      <c r="A1046" s="25" t="s">
+        <v>1009</v>
       </c>
       <c r="B1046" s="26" t="s">
         <v>1135</v>
       </c>
-      <c r="C1046" s="27" t="s">
-        <v>1952</v>
+      <c r="C1046" s="16" t="s">
+        <v>2343</v>
       </c>
       <c r="D1046" s="25" t="s">
         <v>2012</v>
@@ -37635,13 +37664,13 @@
     </row>
     <row r="1047" spans="1:10" ht="45">
       <c r="A1047" s="25" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B1047" s="26" t="s">
         <v>1135</v>
       </c>
-      <c r="C1047" s="27" t="s">
-        <v>1953</v>
+      <c r="C1047" s="16" t="s">
+        <v>2344</v>
       </c>
       <c r="D1047" s="25" t="s">
         <v>2012</v>
@@ -37661,125 +37690,129 @@
       <c r="I1047" s="27"/>
       <c r="J1047" s="53"/>
     </row>
-    <row r="1048" spans="1:10" ht="150">
-      <c r="A1048" s="49" t="s">
-        <v>2247</v>
-      </c>
-      <c r="B1048" s="50" t="s">
+    <row r="1048" spans="1:10" ht="45">
+      <c r="A1048" s="18" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1048" s="26" t="s">
         <v>1135</v>
       </c>
-      <c r="C1048" s="48" t="s">
-        <v>2353</v>
-      </c>
-      <c r="D1048" s="49" t="s">
-        <v>2249</v>
-      </c>
-      <c r="E1048" s="18" t="s">
+      <c r="C1048" s="27" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D1048" s="25" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E1048" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F1048" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1048" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1048" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1048" s="55"/>
+      <c r="F1048" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1048" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1048" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1048" s="27"/>
       <c r="J1048" s="53"/>
     </row>
     <row r="1049" spans="1:10" ht="45">
-      <c r="A1049" s="51" t="s">
-        <v>2287</v>
-      </c>
-      <c r="B1049" s="50" t="s">
+      <c r="A1049" s="25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1049" s="26" t="s">
         <v>1135</v>
       </c>
-      <c r="C1049" s="52" t="s">
-        <v>2289</v>
-      </c>
-      <c r="D1049" s="49" t="s">
-        <v>2249</v>
-      </c>
-      <c r="E1049" s="46" t="s">
+      <c r="C1049" s="27" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D1049" s="25" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E1049" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F1049" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1049" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1049" s="18" t="s">
+      <c r="F1049" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1049" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1049" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1049" s="27"/>
+      <c r="J1049" s="53"/>
+    </row>
+    <row r="1050" spans="1:10" ht="150">
+      <c r="A1050" s="49" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B1050" s="50" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C1050" s="48" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D1050" s="49" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E1050" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1050" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1050" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1050" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1050" s="55"/>
+      <c r="J1050" s="53"/>
+    </row>
+    <row r="1051" spans="1:10" ht="45">
+      <c r="A1051" s="51" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B1051" s="50" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C1051" s="52" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D1051" s="49" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E1051" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1051" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1051" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1051" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I1049" s="16" t="s">
+      <c r="I1051" s="16" t="s">
         <v>2029</v>
       </c>
-      <c r="J1049" s="53"/>
-    </row>
-    <row r="1050" spans="1:10" ht="30">
-      <c r="A1050" s="18" t="s">
+      <c r="J1051" s="53"/>
+    </row>
+    <row r="1052" spans="1:10" ht="30">
+      <c r="A1052" s="18" t="s">
         <v>1013</v>
       </c>
-      <c r="B1050" s="20" t="s">
-        <v>2354</v>
-      </c>
-      <c r="C1050" s="16" t="s">
+      <c r="B1052" s="20" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C1052" s="16" t="s">
         <v>1954</v>
-      </c>
-      <c r="D1050" s="25"/>
-      <c r="E1050" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1050" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1050" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1050" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1050" s="27"/>
-      <c r="J1050" s="53"/>
-    </row>
-    <row r="1051" spans="1:10" ht="30">
-      <c r="A1051" s="25" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B1051" s="20" t="s">
-        <v>2354</v>
-      </c>
-      <c r="C1051" s="27" t="s">
-        <v>1955</v>
-      </c>
-      <c r="D1051" s="25"/>
-      <c r="E1051" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1051" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1051" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1051" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1051" s="27"/>
-      <c r="J1051" s="53"/>
-    </row>
-    <row r="1052" spans="1:10" ht="30">
-      <c r="A1052" s="25" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B1052" s="20" t="s">
-        <v>2354</v>
-      </c>
-      <c r="C1052" s="16" t="s">
-        <v>2355</v>
       </c>
       <c r="D1052" s="25"/>
       <c r="E1052" s="25" t="s">
@@ -37792,20 +37825,20 @@
         <v>15</v>
       </c>
       <c r="H1052" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1052" s="27"/>
       <c r="J1052" s="53"/>
     </row>
     <row r="1053" spans="1:10" ht="30">
-      <c r="A1053" s="18" t="s">
-        <v>1016</v>
+      <c r="A1053" s="25" t="s">
+        <v>1014</v>
       </c>
       <c r="B1053" s="20" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C1053" s="16" t="s">
-        <v>1956</v>
+        <v>2346</v>
+      </c>
+      <c r="C1053" s="27" t="s">
+        <v>1955</v>
       </c>
       <c r="D1053" s="25"/>
       <c r="E1053" s="25" t="s">
@@ -37818,18 +37851,70 @@
         <v>15</v>
       </c>
       <c r="H1053" s="25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1053" s="27"/>
       <c r="J1053" s="53"/>
     </row>
-    <row r="1054" spans="1:10">
-      <c r="A1054" s="3"/>
-      <c r="B1054" s="9"/>
-    </row>
-    <row r="1055" spans="1:10">
-      <c r="A1055" s="3"/>
-      <c r="B1055" s="9"/>
+    <row r="1054" spans="1:10" ht="30">
+      <c r="A1054" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1054" s="20" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C1054" s="16" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D1054" s="25"/>
+      <c r="E1054" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1054" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1054" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1054" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1054" s="27"/>
+      <c r="J1054" s="53"/>
+    </row>
+    <row r="1055" spans="1:10" ht="30">
+      <c r="A1055" s="18" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1055" s="20" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C1055" s="16" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D1055" s="25"/>
+      <c r="E1055" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1055" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1055" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1055" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1055" s="27"/>
+      <c r="J1055" s="53"/>
+    </row>
+    <row r="1056" spans="1:10">
+      <c r="A1056" s="3"/>
+      <c r="B1056" s="9"/>
+    </row>
+    <row r="1057" spans="1:2">
+      <c r="A1057" s="3"/>
+      <c r="B1057" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -37846,7 +37931,7 @@
     <mergeCell ref="B17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1007:B1007 A20:H45 D1007:I1007 A1039:I1047 A1050:I1053 I1006:I1033 A1008:I1037 E1048:H1048 I1049 A34:I1006">
+  <conditionalFormatting sqref="A1009:B1009 A20:H45 D1009:I1009 A1041:I1049 A1052:I1055 I1008:I1035 A1010:I1039 E1050:H1050 I1051 A34:I1008">
     <cfRule type="expression" dxfId="67" priority="115">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -37857,7 +37942,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1007:B1007 A20:H45 D1007:I1007 A1039:I1047 A1050:I1053 I1006:I1033 A1008:I1037 E1048:H1048 I1049 A34:I1006">
+  <conditionalFormatting sqref="A1009:B1009 A20:H45 D1009:I1009 A1041:I1049 A1052:I1055 I1008:I1035 A1010:I1039 E1050:H1050 I1051 A34:I1008">
     <cfRule type="expression" dxfId="64" priority="69">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -37868,7 +37953,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1039:F1047 F1050:F1053 F20:F1037">
+  <conditionalFormatting sqref="F1041:F1049 F1052:F1055 F20:F1039">
     <cfRule type="expression" dxfId="61" priority="75">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
@@ -37898,7 +37983,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1007">
+  <conditionalFormatting sqref="C1009">
     <cfRule type="expression" dxfId="53" priority="60">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -37909,7 +37994,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1007">
+  <conditionalFormatting sqref="C1009">
     <cfRule type="expression" dxfId="50" priority="57">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -37920,7 +38005,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1038:I1038">
+  <conditionalFormatting sqref="D1040:I1040">
     <cfRule type="expression" dxfId="47" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -37931,7 +38016,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1038:I1038">
+  <conditionalFormatting sqref="D1040:I1040">
     <cfRule type="expression" dxfId="44" priority="49">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -37942,15 +38027,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1038">
+  <conditionalFormatting sqref="F1040">
     <cfRule type="expression" dxfId="41" priority="52">
-      <formula>NOT(VLOOKUP(F1038,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F1040,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="40" priority="53">
-      <formula>(VLOOKUP(F1038,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F1040,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1038:C1038">
+  <conditionalFormatting sqref="A1040:C1040">
     <cfRule type="expression" dxfId="39" priority="43">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -37961,7 +38046,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1038:C1038">
+  <conditionalFormatting sqref="A1040:C1040">
     <cfRule type="expression" dxfId="36" priority="46">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -37972,15 +38057,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1048">
+  <conditionalFormatting sqref="F1050">
     <cfRule type="expression" dxfId="33" priority="38">
-      <formula>NOT(VLOOKUP(F1048,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F1050,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="39">
-      <formula>(VLOOKUP(F1048,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F1050,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1048">
+  <conditionalFormatting sqref="A1050">
     <cfRule type="expression" dxfId="31" priority="23">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -37991,7 +38076,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1048:D1048 D1049 B1049">
+  <conditionalFormatting sqref="B1050:D1050 D1051 B1051">
     <cfRule type="expression" dxfId="28" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -38002,7 +38087,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1048:D1048 D1049 B1049">
+  <conditionalFormatting sqref="B1050:D1050 D1051 B1051">
     <cfRule type="expression" dxfId="25" priority="29">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -38013,7 +38098,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1048">
+  <conditionalFormatting sqref="A1050">
     <cfRule type="expression" dxfId="22" priority="26">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -38024,7 +38109,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1049 E1049 J1049">
+  <conditionalFormatting sqref="C1051 E1051 J1051">
     <cfRule type="expression" dxfId="19" priority="20">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -38035,7 +38120,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1049 E1049 J1049">
+  <conditionalFormatting sqref="C1051 E1051 J1051">
     <cfRule type="expression" dxfId="16" priority="17">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -38046,7 +38131,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1049">
+  <conditionalFormatting sqref="A1051">
     <cfRule type="expression" dxfId="13" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -38057,7 +38142,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1049">
+  <conditionalFormatting sqref="A1051">
     <cfRule type="expression" dxfId="10" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -38068,7 +38153,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1049:H1049">
+  <conditionalFormatting sqref="F1051:H1051">
     <cfRule type="expression" dxfId="7" priority="6">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -38079,7 +38164,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1049:H1049">
+  <conditionalFormatting sqref="F1051:H1051">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -38090,32 +38175,32 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1049">
+  <conditionalFormatting sqref="F1051">
     <cfRule type="expression" dxfId="1" priority="4">
-      <formula>NOT(VLOOKUP(F1049,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F1051,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>(VLOOKUP(F1049,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F1051,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F1053" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F1055" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E1050:E1053 E20:E1048" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E1052:E1055 E20:E1050" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 J1049 G20:G1053" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 J1051 G20:G1055" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1039:H1047 H1050:H1053 H20:H1037" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1041:H1049 H1052:H1055 H20:H1039" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1038 H1048:H1049" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1040 H1050:H1051" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Message Deserialization, Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -38125,7 +38210,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 B10:B16 B995:B1004 B18:B52 B54:B992 B1007:B1018 B1020:B1049 B1054:B1055" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 B10:B16 B995:B1004 B18:B52 B54:B992 B1009:B1020 B1022:B1051 B1056:B1057" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -38184,18 +38269,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -38214,14 +38299,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -38233,4 +38310,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>